--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Krebs\Desktop\Thesis\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA39E7-76D3-4E2B-A241-8F0802103B46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C986FD8-12BB-4AF3-97DE-3535A89E6A1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15651" windowHeight="4603" xr2:uid="{ED335545-2B89-4BF1-A2A3-7328FC7A88CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="502">
   <si>
     <t>data</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>correlation tabel of centrality measures</t>
-  </si>
-  <si>
-    <t>components</t>
   </si>
   <si>
     <t>reciprocity(g)</t>
@@ -1617,6 +1614,341 @@
   </si>
   <si>
     <t>R_Output\dynsnap\Subset11\graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>number of nodes</t>
+  </si>
+  <si>
+    <t>number of edges</t>
+  </si>
+  <si>
+    <t>00.10.00.00.00.00.09.009 10.02.00.00.00.00.09.010 10.06.00.00.00.00.08.032 01.06.00.00.00.00.03.028 01.04.00.00.00.00.01.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%  2 
+25%  726
+50%  2906
+75%  6963
+100% 26286 </t>
+  </si>
+  <si>
+    <t>10.06.00.00.00.00.08.032
+15.09.00.00.00.00.14.052
+15.09.00.00.00.00.08.038
+10.02.05.02.00.00.08.006
+03.03.00.00.00.00.04.025</t>
+  </si>
+  <si>
+    <t>0%  1
+25% 31
+50%  56
+75% 233
+100% 566</t>
+  </si>
+  <si>
+    <t>09.04.00.00.00.00.01.007
+15.09.00.00.00.00.08.036
+09.03.00.00.00.00.17.002
+10.03.00.00.00.00.07.007
+17.04.00.00.00.00.10.074</t>
+  </si>
+  <si>
+    <t>0%  0
+25% 1.883946
+50%  40.627186
+75% 83.240815
+100% 3804.575174</t>
+  </si>
+  <si>
+    <t>09.04.00.00.00.00.01.007
+10.06.00.00.00.00.08.032
+04.04.00.00.00.00.08.019
+15.09.00.00.00.00.08.036
+03.03.00.00.00.00.04.026</t>
+  </si>
+  <si>
+    <t>0%  0.001459854
+25% 0.002040816
+50%  0.002169197
+75% 0.002331002
+100% 0.003584229</t>
+  </si>
+  <si>
+    <t>13 (3-41)</t>
+  </si>
+  <si>
+    <t>10 (7-59)</t>
+  </si>
+  <si>
+    <t>27 (1-59)</t>
+  </si>
+  <si>
+    <t>31 (1-46)</t>
+  </si>
+  <si>
+    <t>44 (1-39)</t>
+  </si>
+  <si>
+    <t>25 (2-46)</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\communities_labelpropagation_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\communities_walktrap_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\communities_louvain_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\centrality_correlation.csv</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\closeness_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\betweenness_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\diameter_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\degree_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\distance_barplot_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_C\graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>00.01.00.00.00.00.10.057 12.02.00.00.00.00.10.053 00.01.00.00.00.00.10.010 09.04.00.00.00.00.01.007 00.01.00.00.00.00.14.049 03.02.00.00.00.00.05.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%  1
+25%  153
+50%  624.5
+75%  1931.5
+100% 17975 </t>
+  </si>
+  <si>
+    <t>15.09.00.00.00.00.14.052
+03.02.00.00.00.00.14.004
+00.07.00.00.00.00.10.066
+12.02.10.02.00.00.02.054
+00.01.00.00.00.00.14.047</t>
+  </si>
+  <si>
+    <t>0%  1
+25% 11
+50%  17
+75% 30
+100% 133</t>
+  </si>
+  <si>
+    <t>09.04.00.00.00.00.01.007
+00.01.00.00.00.00.05.087
+09.03.00.00.00.00.17.002
+15.07.00.00.00.00.08.042
+18.06.17.06.00.00.01.019</t>
+  </si>
+  <si>
+    <t>0%  0
+25% 11.08485
+50%  72.30316
+75% 353.95517
+100% 39852.50156</t>
+  </si>
+  <si>
+    <t>09.04.00.00.00.00.01.007
+00.01.00.00.00.00.05.087
+00.01.00.00.00.00.14.035
+15.09.00.00.00.00.14.052
+00.01.00.00.00.00.14.023</t>
+  </si>
+  <si>
+    <t>0%  0.0005399568
+25% 0.0007034825
+50%  0.0007587253
+75% 0.0007692308
+100% 0.0012722646</t>
+  </si>
+  <si>
+    <t>09.04.00.00.00.00.01.007
+00.01.00.00.00.00.05.087
+00.01.00.00.00.00.14.035
+09.03.00.00.00.00.17.002
+00.01.00.00.00.00.14.007</t>
+  </si>
+  <si>
+    <t>8 (28-103</t>
+  </si>
+  <si>
+    <t>8 (28-103)</t>
+  </si>
+  <si>
+    <t>9 (1-542)</t>
+  </si>
+  <si>
+    <t>25 (1-225)</t>
+  </si>
+  <si>
+    <t>39 (2-191)</t>
+  </si>
+  <si>
+    <t>44 (2-153)</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\communities_labelpropagation_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\communities_walktrap_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\communities_louvain_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\centrality_correlation.csv</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\closeness_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\betweenness_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\degree_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\degree_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\diameter_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\distance_barplot_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_C_SG\graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>00.01.00.00.00.00.10.039 00.01.00.00.00.00.10.081 00.01.00.00.00.00.10.044 00.01.00.00.00.00.13.010 00.01.00.00.00.00.05.077</t>
+  </si>
+  <si>
+    <t>0%  1
+25%  1753
+50%  3850.5
+75%  6235.25
+100% 23746</t>
+  </si>
+  <si>
+    <t>00.01.00.00.00.00.12.004
+00.01.00.00.00.00.10.046
+00.01.00.00.00.00.11.012
+00.01.00.00.00.00.12.007
+00.01.00.00.00.00.10.028</t>
+  </si>
+  <si>
+    <t>0%  1
+25% 20
+50%  28
+75% 35
+100% 267</t>
+  </si>
+  <si>
+    <t>00.01.00.00.00.00.05.087
+00.01.00.00.00.00.02.005
+00.01.00.00.00.00.03.021
+00.01.00.00.00.00.02.026
+00.01.00.00.00.00.02.015</t>
+  </si>
+  <si>
+    <t>0%  0
+25% 7.055867
+50%  34.290656
+75% 140.219555
+100% 19776.994925</t>
+  </si>
+  <si>
+    <t>00.01.00.00.00.00.05.087
+00.01.00.00.00.00.14.022
+00.01.00.00.00.00.02.005
+00.01.00.00.00.00.13.006
+00.01.00.00.00.00.14.035</t>
+  </si>
+  <si>
+    <t>0%  0.001016260
+25% 0.001481481
+50%  0.001514005
+75% 0.001543210
+100% 0.002610966</t>
+  </si>
+  <si>
+    <t>00.01.00.00.00.00.05.087
+00.01.00.00.00.00.14.022
+00.01.00.00.00.00.03.021
+00.01.00.00.00.00.02.005
+00.01.00.00.00.00.03.041</t>
+  </si>
+  <si>
+    <t>10 (13-67)</t>
+  </si>
+  <si>
+    <t>30 (1-63)</t>
+  </si>
+  <si>
+    <t>27 (1-64)</t>
+  </si>
+  <si>
+    <t>101 (1-20)</t>
+  </si>
+  <si>
+    <t>42 (2-28)</t>
+  </si>
+  <si>
+    <t>11 (3-66)</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\communities_labelpropagation_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\communities_walktrap_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\communities_louvain_graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\centrality_correlation.csv</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\closeness_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\betweenness_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\degree_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\degree_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\diameter_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\distance_barplot_g.un.pdf</t>
+  </si>
+  <si>
+    <t>R_Output\data_SG_SG\graph_g.simp.un.pdf</t>
+  </si>
+  <si>
+    <t>biggest component</t>
+  </si>
+  <si>
+    <t>Inter-pretation</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2129,9 +2461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2265,6 +2594,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2582,2817 +2946,3209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6136AA5-85F6-4B33-93FE-15B87189AD7D}">
-  <dimension ref="A1:BF42"/>
+  <dimension ref="A1:BH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF17" sqref="AF15:AF17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.69140625" defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.23046875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.3828125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.07421875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.61328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3828125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.23046875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.07421875" style="114" customWidth="1"/>
+    <col min="4" max="4" width="19.07421875" style="108" customWidth="1"/>
+    <col min="5" max="5" width="22.15234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.3828125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.23046875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="20.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.07421875" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.53515625" style="49" customWidth="1"/>
-    <col min="16" max="16" width="29.84375" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.69140625" style="25"/>
-    <col min="18" max="18" width="22.3046875" style="14" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="28.07421875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="17.921875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="19.921875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="25.53515625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="21.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.84375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.4609375" style="15" customWidth="1"/>
-    <col min="27" max="27" width="27.53515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.15234375" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.4609375" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.07421875" style="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.23046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.23046875" style="18" customWidth="1"/>
-    <col min="39" max="39" width="23.69140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.69140625" style="25"/>
-    <col min="41" max="41" width="16.23046875" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.3046875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.07421875" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.84375" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="23.921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="37.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="31.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.53515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="10.69140625" style="25"/>
+    <col min="10" max="10" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.23046875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="20.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.07421875" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.53515625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="29.84375" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.69140625" style="25"/>
+    <col min="20" max="20" width="22.3046875" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="28.07421875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="17.921875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="19.921875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="25.53515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="21.765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.4609375" style="15" customWidth="1"/>
+    <col min="29" max="29" width="27.53515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.4609375" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.07421875" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.23046875" style="18" customWidth="1"/>
+    <col min="41" max="41" width="23.69140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.69140625" style="25"/>
+    <col min="43" max="43" width="16.23046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.3046875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="18.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.07421875" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="31.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.53515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="10.69140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" s="27" customFormat="1" ht="116.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF1" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" s="27" customFormat="1" ht="116.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="23" t="s">
+      <c r="Q2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AF2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AK2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AL2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AN2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AO2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="AQ2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AS2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AW2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AX2" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AY2" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AZ2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BB2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF2" s="19" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="39">
+        <v>595</v>
+      </c>
+      <c r="D3" s="39">
+        <v>2003867</v>
+      </c>
+      <c r="E3" s="40">
+        <v>578</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J3" s="36">
+        <v>11.34</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0.107</v>
+      </c>
+      <c r="L3" s="36">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="M3" s="36">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N3" s="36">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="40">
+        <v>63.638570000000001</v>
+      </c>
+      <c r="U3" s="35">
+        <v>0.84513479999999996</v>
+      </c>
+      <c r="V3" s="35">
+        <v>0.2692041</v>
+      </c>
+      <c r="W3" s="35">
+        <v>0.24164869999999999</v>
+      </c>
+      <c r="X3" s="42">
+        <v>0.8645967</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>5952.1679999999997</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="40">
+        <v>63.989919999999998</v>
+      </c>
+      <c r="AD3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" s="40">
+        <v>272.73610000000002</v>
+      </c>
+      <c r="AH3" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK3" s="35">
+        <v>8.8177730000000003E-4</v>
+      </c>
+      <c r="AL3" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ3" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="40">
-        <v>578</v>
-      </c>
-      <c r="D3" s="36">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="E3" s="36">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="F3" s="36">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G3" s="36">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="H3" s="36">
-        <v>11.34</v>
-      </c>
-      <c r="I3" s="36">
-        <v>0.107</v>
-      </c>
-      <c r="J3" s="36">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="K3" s="36">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="L3" s="36">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="36">
-        <v>4</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3" s="40">
-        <v>63.638570000000001</v>
-      </c>
-      <c r="S3" s="35">
-        <v>0.84513479999999996</v>
-      </c>
-      <c r="T3" s="35">
-        <v>0.2692041</v>
-      </c>
-      <c r="U3" s="35">
-        <v>0.24164869999999999</v>
-      </c>
-      <c r="V3" s="42">
-        <v>0.8645967</v>
-      </c>
-      <c r="W3" s="40">
-        <v>5952.1679999999997</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA3" s="40">
-        <v>63.989919999999998</v>
-      </c>
-      <c r="AB3" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC3" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE3" s="40">
-        <v>272.73610000000002</v>
-      </c>
-      <c r="AF3" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG3" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI3" s="35">
-        <v>8.8177730000000003E-4</v>
-      </c>
-      <c r="AJ3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK3" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM3" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO3" s="56" t="s">
+      <c r="AR3" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="AP3" s="34" t="s">
+      <c r="AS3" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AQ3" s="34" t="s">
+      <c r="AT3" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="AR3" s="40" t="s">
+      <c r="AU3" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AS3" s="36" t="s">
+      <c r="AV3" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="AT3" s="36" t="s">
+      <c r="AW3" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AU3" s="36" t="s">
+      <c r="AX3" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="AV3" s="36" t="s">
+      <c r="AY3" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="AW3" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX3" s="40">
+      <c r="AZ3" s="40">
         <v>0.72458789999999995</v>
       </c>
-      <c r="AY3" s="36">
+      <c r="BA3" s="36">
         <v>0.39150079999999998</v>
       </c>
-      <c r="AZ3" s="36">
+      <c r="BB3" s="36">
         <v>0.62372119999999998</v>
       </c>
-      <c r="BA3" s="36">
+      <c r="BC3" s="36">
         <v>0.36439820000000001</v>
       </c>
-      <c r="BB3" s="36">
+      <c r="BD3" s="36">
         <v>0.58140530000000001</v>
       </c>
-      <c r="BC3" s="37">
+      <c r="BE3" s="37">
         <v>0</v>
       </c>
-      <c r="BD3" s="40">
+      <c r="BF3" s="40">
         <v>0.48326479999999999</v>
       </c>
-      <c r="BE3" s="36">
+      <c r="BG3" s="36">
         <v>0.31866899999999998</v>
       </c>
-      <c r="BF3" s="37">
+      <c r="BH3" s="37">
         <v>0.18867729999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:58" s="75" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="71"/>
+    <row r="4" spans="1:60" s="74" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
       <c r="X4" s="76"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="74"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="75"/>
       <c r="AA4" s="71"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="74"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="71"/>
       <c r="AE4" s="71"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="69"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="68"/>
+      <c r="AQ4" s="70"/>
       <c r="AR4" s="71"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="73"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
       <c r="AX4" s="71"/>
       <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="74"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
       <c r="BD4" s="71"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="74"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="73"/>
     </row>
-    <row r="5" spans="1:58" s="41" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="61"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="57"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="60"/>
-      <c r="AT5" s="60"/>
-      <c r="AU5" s="60"/>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="60"/>
-      <c r="BF5" s="61"/>
+      <c r="B5" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="39">
+        <v>257</v>
+      </c>
+      <c r="D5" s="39">
+        <v>696584</v>
+      </c>
+      <c r="E5" s="58">
+        <v>241</v>
+      </c>
+      <c r="F5" s="59">
+        <v>0.76145130000000005</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0.79878229999999995</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.51470340000000003</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0.64703880000000003</v>
+      </c>
+      <c r="J5" s="59">
+        <v>21.175339999999998</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0.24589620000000001</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0.3614269</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0.13007640000000001</v>
+      </c>
+      <c r="N5" s="59">
+        <v>1.79417</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="P5" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="R5" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="T5" s="58">
+        <v>98.656689999999998</v>
+      </c>
+      <c r="U5" s="61">
+        <v>0.66426010000000002</v>
+      </c>
+      <c r="V5" s="61">
+        <v>0.11389050000000001</v>
+      </c>
+      <c r="W5" s="61">
+        <v>0.112764</v>
+      </c>
+      <c r="X5" s="42">
+        <v>0.70614580000000005</v>
+      </c>
+      <c r="Y5" s="58">
+        <v>4728.5290000000005</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA5" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB5" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC5" s="58">
+        <v>62.949420000000003</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE5" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF5" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG5" s="58">
+        <v>101.6537</v>
+      </c>
+      <c r="AH5" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI5" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ5" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="AK5" s="61">
+        <v>2.2130930000000002E-3</v>
+      </c>
+      <c r="AL5" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM5" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="AN5" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO5" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="AQ5" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="AR5" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS5" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT5" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="AU5" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV5" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="AW5" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="AX5" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="AY5" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="AZ5" s="58">
+        <v>0.56607200000000002</v>
+      </c>
+      <c r="BA5" s="59">
+        <v>0.51237730000000004</v>
+      </c>
+      <c r="BB5" s="59">
+        <v>0.40961799999999998</v>
+      </c>
+      <c r="BC5" s="59">
+        <v>0.4671264</v>
+      </c>
+      <c r="BD5" s="59">
+        <v>0.53012879999999996</v>
+      </c>
+      <c r="BE5" s="60">
+        <v>0.4769407</v>
+      </c>
+      <c r="BF5" s="58">
+        <v>0.334536</v>
+      </c>
+      <c r="BG5" s="59">
+        <v>0.58202290000000001</v>
+      </c>
+      <c r="BH5" s="60">
+        <v>0.18214369999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" s="41" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="61"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="57"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="61"/>
+      <c r="B6" s="63" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="39">
+        <v>558</v>
+      </c>
+      <c r="D6" s="39">
+        <v>425171</v>
+      </c>
+      <c r="E6" s="58">
+        <v>533</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0.77714609999999995</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.8214844</v>
+      </c>
+      <c r="H6" s="86">
+        <v>0</v>
+      </c>
+      <c r="I6" s="86">
+        <v>0</v>
+      </c>
+      <c r="J6" s="86">
+        <v>2.7359249999999999</v>
+      </c>
+      <c r="K6" s="59">
+        <v>4.1228290000000001E-2</v>
+      </c>
+      <c r="L6" s="86">
+        <v>0.11622689999999999</v>
+      </c>
+      <c r="M6" s="86">
+        <v>0.1082048</v>
+      </c>
+      <c r="N6" s="59">
+        <v>2.4556279999999999</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="P6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="T6" s="58">
+        <v>29.535170000000001</v>
+      </c>
+      <c r="U6" s="61">
+        <v>0.55661729999999998</v>
+      </c>
+      <c r="V6" s="61">
+        <v>0.25520789999999999</v>
+      </c>
+      <c r="W6" s="61">
+        <v>0.32876240000000001</v>
+      </c>
+      <c r="X6" s="42">
+        <v>0.59879320000000003</v>
+      </c>
+      <c r="Y6" s="102">
+        <v>1523.91</v>
+      </c>
+      <c r="Z6" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB6" s="60" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC6" s="58">
+        <v>22.96416</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE6" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF6" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG6" s="58">
+        <v>405.39249999999998</v>
+      </c>
+      <c r="AH6" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI6" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ6" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK6" s="115">
+        <v>7.3619359999999999E-4</v>
+      </c>
+      <c r="AL6" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM6" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN6" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO6" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ6" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR6" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="AS6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT6" s="102" t="s">
+        <v>456</v>
+      </c>
+      <c r="AU6" s="86" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV6" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW6" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="AX6" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="AY6" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="AZ6" s="102">
+        <v>0.72028029999999998</v>
+      </c>
+      <c r="BA6" s="86">
+        <v>0.72028029999999998</v>
+      </c>
+      <c r="BB6" s="59">
+        <v>2.1624789999999999E-4</v>
+      </c>
+      <c r="BC6" s="59">
+        <v>0.58184089999999999</v>
+      </c>
+      <c r="BD6" s="59">
+        <v>0.5834937</v>
+      </c>
+      <c r="BE6" s="60">
+        <v>0.58149269999999997</v>
+      </c>
+      <c r="BF6" s="58">
+        <v>0.45175100000000001</v>
+      </c>
+      <c r="BG6" s="59">
+        <v>0.17089850000000001</v>
+      </c>
+      <c r="BH6" s="60">
+        <v>0.12795590000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" s="41" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="61"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="57"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="61"/>
+      <c r="B7" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="39">
+        <v>326</v>
+      </c>
+      <c r="D7" s="39">
+        <v>882112</v>
+      </c>
+      <c r="E7" s="58">
+        <v>311</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0.7688876</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.86715730000000002</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0.48761719999999997</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0.60129290000000002</v>
+      </c>
+      <c r="J7" s="59">
+        <v>16.651479999999999</v>
+      </c>
+      <c r="K7" s="59">
+        <v>8.5719680000000006E-2</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0.32994430000000002</v>
+      </c>
+      <c r="M7" s="59">
+        <v>6.7375640000000001E-2</v>
+      </c>
+      <c r="N7" s="59">
+        <v>2.1340629999999998</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="P7" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="T7" s="58">
+        <v>59.256219999999999</v>
+      </c>
+      <c r="U7" s="61">
+        <v>0.7358188</v>
+      </c>
+      <c r="V7" s="61">
+        <v>0.37327630000000001</v>
+      </c>
+      <c r="W7" s="61">
+        <v>0.53296250000000001</v>
+      </c>
+      <c r="X7" s="42">
+        <v>0.74907230000000002</v>
+      </c>
+      <c r="Y7" s="58">
+        <v>4527.5029999999997</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA7" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB7" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC7" s="58">
+        <v>27.858899999999998</v>
+      </c>
+      <c r="AD7" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF7" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG7" s="58">
+        <v>184.28530000000001</v>
+      </c>
+      <c r="AH7" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI7" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ7" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK7" s="61">
+        <v>1.4638520000000001E-3</v>
+      </c>
+      <c r="AL7" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="AM7" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="AN7" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="AO7" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ7" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR7" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="AS7" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="AT7" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="AU7" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="AV7" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="AW7" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="AX7" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="AY7" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ7" s="58">
+        <v>0.82771300000000003</v>
+      </c>
+      <c r="BA7" s="59">
+        <v>0.81842809999999999</v>
+      </c>
+      <c r="BB7" s="59">
+        <v>0.69218800000000003</v>
+      </c>
+      <c r="BC7" s="59">
+        <v>0.81015519999999996</v>
+      </c>
+      <c r="BD7" s="59">
+        <v>0.60446140000000004</v>
+      </c>
+      <c r="BE7" s="60">
+        <v>0.69630340000000002</v>
+      </c>
+      <c r="BF7" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="BG7" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="BH7" s="60" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" s="75" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="71"/>
+    <row r="8" spans="1:60" s="74" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
       <c r="X8" s="76"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="74"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="75"/>
       <c r="AA8" s="71"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="74"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="71"/>
       <c r="AE8" s="71"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="69"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="68"/>
+      <c r="AQ8" s="70"/>
       <c r="AR8" s="71"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="73"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
       <c r="AX8" s="71"/>
       <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="74"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
       <c r="BD8" s="71"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="74"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="71"/>
+      <c r="BH8" s="73"/>
     </row>
-    <row r="9" spans="1:58" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="58">
+        <v>431</v>
+      </c>
+      <c r="F9" s="59">
+        <v>0.73287769999999997</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0.83128199999999997</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0.41863129999999998</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0.54417099999999996</v>
+      </c>
+      <c r="J9" s="59">
+        <v>1.9937</v>
+      </c>
+      <c r="K9" s="59">
+        <v>5.5047659999999998E-2</v>
+      </c>
+      <c r="L9" s="59">
+        <v>0.43725180000000002</v>
+      </c>
+      <c r="M9" s="59">
+        <v>0.23788519999999999</v>
+      </c>
+      <c r="N9" s="59">
+        <v>2.6149429999999998</v>
+      </c>
+      <c r="O9" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="59">
-        <v>431</v>
-      </c>
-      <c r="D9" s="60">
-        <v>0.73287769999999997</v>
-      </c>
-      <c r="E9" s="60">
-        <v>0.83128199999999997</v>
-      </c>
-      <c r="F9" s="60">
-        <v>0.41863129999999998</v>
-      </c>
-      <c r="G9" s="60">
-        <v>0.54417099999999996</v>
-      </c>
-      <c r="H9" s="60">
-        <v>1.9937</v>
-      </c>
-      <c r="I9" s="60">
-        <v>5.5047659999999998E-2</v>
-      </c>
-      <c r="J9" s="60">
-        <v>0.43725180000000002</v>
-      </c>
-      <c r="K9" s="60">
-        <v>0.23788519999999999</v>
-      </c>
-      <c r="L9" s="60">
-        <v>2.6149429999999998</v>
-      </c>
-      <c r="M9" s="38" t="s">
+      <c r="P9" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="60">
-        <v>5</v>
-      </c>
-      <c r="O9" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="R9" s="59">
+      <c r="T9" s="58">
         <v>9.2580010000000001</v>
       </c>
-      <c r="S9" s="62">
+      <c r="U9" s="61">
         <v>0.17170969999999999</v>
       </c>
-      <c r="T9" s="62">
+      <c r="V9" s="61">
         <v>9.6636899999999998E-2</v>
       </c>
-      <c r="U9" s="62">
+      <c r="W9" s="61">
         <v>8.2935620000000002E-2</v>
       </c>
-      <c r="V9" s="42">
+      <c r="X9" s="42">
         <v>0.31599559999999999</v>
       </c>
-      <c r="W9" s="59">
+      <c r="Y9" s="58">
         <v>879.22170000000006</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="Z9" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="38" t="s">
+      <c r="AC9" s="58">
+        <v>24.276019999999999</v>
+      </c>
+      <c r="AD9" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE9" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF9" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG9" s="58">
+        <v>356.09500000000003</v>
+      </c>
+      <c r="AH9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI9" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ9" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK9" s="61">
+        <v>8.7751259999999998E-4</v>
+      </c>
+      <c r="AL9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM9" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN9" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO9" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ9" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="Z9" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA9" s="59">
-        <v>24.276019999999999</v>
-      </c>
-      <c r="AB9" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC9" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD9" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE9" s="59">
-        <v>356.09500000000003</v>
-      </c>
-      <c r="AF9" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG9" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH9" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI9" s="62">
-        <v>8.7751259999999998E-4</v>
-      </c>
-      <c r="AJ9" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK9" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL9" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM9" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO9" s="68" t="s">
+      <c r="AR9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AP9" s="38" t="s">
+      <c r="AS9" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AQ9" s="38" t="s">
+      <c r="AT9" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="AR9" s="59" t="s">
+      <c r="AU9" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="AS9" s="60" t="s">
+      <c r="AV9" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="AT9" s="60" t="s">
+      <c r="AW9" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="AU9" s="60" t="s">
+      <c r="AX9" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="AV9" s="60" t="s">
+      <c r="AY9" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="AW9" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX9" s="59">
+      <c r="AZ9" s="58">
         <v>0.76204879999999997</v>
       </c>
-      <c r="AY9" s="60">
+      <c r="BA9" s="59">
         <v>0.66005689999999995</v>
       </c>
-      <c r="AZ9" s="60">
+      <c r="BB9" s="59">
         <v>0.76600970000000002</v>
       </c>
-      <c r="BA9" s="60">
+      <c r="BC9" s="59">
         <v>0.66352370000000005</v>
       </c>
-      <c r="BB9" s="60">
+      <c r="BD9" s="59">
         <v>0.65115319999999999</v>
       </c>
-      <c r="BC9" s="61">
+      <c r="BE9" s="60">
         <v>0.6608058</v>
       </c>
-      <c r="BD9" s="59">
+      <c r="BF9" s="58">
         <v>0.66260339999999995</v>
       </c>
-      <c r="BE9" s="60">
+      <c r="BG9" s="59">
         <v>0.1305481</v>
       </c>
-      <c r="BF9" s="61">
+      <c r="BH9" s="60">
         <v>0.1104439</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="59">
+      <c r="B10" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="58">
         <v>456</v>
       </c>
-      <c r="D10" s="60">
+      <c r="F10" s="59">
         <v>0.7313653</v>
       </c>
-      <c r="E10" s="60">
+      <c r="G10" s="59">
         <v>0.83374740000000003</v>
       </c>
-      <c r="F10" s="60">
+      <c r="H10" s="59">
         <v>0.38528440000000003</v>
       </c>
-      <c r="G10" s="60">
+      <c r="I10" s="59">
         <v>0.52201370000000002</v>
       </c>
-      <c r="H10" s="60">
+      <c r="J10" s="59">
         <v>1.9383870000000001</v>
       </c>
-      <c r="I10" s="60">
+      <c r="K10" s="59">
         <v>5.3697910000000001E-2</v>
       </c>
-      <c r="J10" s="60">
+      <c r="L10" s="59">
         <v>0.27107959999999998</v>
       </c>
-      <c r="K10" s="60">
+      <c r="M10" s="59">
         <v>0.13361020000000001</v>
       </c>
-      <c r="L10" s="60">
+      <c r="N10" s="59">
         <v>2.570554</v>
       </c>
-      <c r="M10" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" s="60">
+      <c r="O10" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="59">
         <v>5</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="Q10" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="T10" s="58">
+        <v>7.21793</v>
+      </c>
+      <c r="U10" s="61">
+        <v>0.220392</v>
+      </c>
+      <c r="V10" s="61">
+        <v>8.1404000000000004E-2</v>
+      </c>
+      <c r="W10" s="61">
+        <v>9.3925709999999996E-2</v>
+      </c>
+      <c r="X10" s="42">
+        <v>0.33675040000000001</v>
+      </c>
+      <c r="Y10" s="58">
+        <v>905.22649999999999</v>
+      </c>
+      <c r="Z10" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="P10" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="R10" s="59">
-        <v>7.21793</v>
-      </c>
-      <c r="S10" s="62">
-        <v>0.220392</v>
-      </c>
-      <c r="T10" s="62">
-        <v>8.1404000000000004E-2</v>
-      </c>
-      <c r="U10" s="62">
-        <v>9.3925709999999996E-2</v>
-      </c>
-      <c r="V10" s="42">
-        <v>0.33675040000000001</v>
-      </c>
-      <c r="W10" s="59">
-        <v>905.22649999999999</v>
-      </c>
-      <c r="X10" s="35" t="s">
+      <c r="AA10" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB10" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="Y10" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z10" s="61" t="s">
+      <c r="AC10" s="58">
+        <v>25.076920000000001</v>
+      </c>
+      <c r="AD10" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="AA10" s="59">
-        <v>25.076920000000001</v>
-      </c>
-      <c r="AB10" s="35" t="s">
+      <c r="AE10" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF10" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="AC10" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD10" s="61" t="s">
+      <c r="AG10" s="58">
+        <v>366.7244</v>
+      </c>
+      <c r="AH10" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="AE10" s="59">
-        <v>366.7244</v>
-      </c>
-      <c r="AF10" s="35" t="s">
+      <c r="AI10" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ10" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="AG10" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH10" s="61" t="s">
+      <c r="AK10" s="61">
+        <v>8.4397900000000002E-4</v>
+      </c>
+      <c r="AL10" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AI10" s="62">
-        <v>8.4397900000000002E-4</v>
-      </c>
-      <c r="AJ10" s="35" t="s">
+      <c r="AM10" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN10" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="AK10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL10" s="63" t="s">
+      <c r="AO10" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ10" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR10" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS10" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT10" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="AM10" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO10" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP10" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ10" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR10" s="59" t="s">
+      <c r="AU10" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="AS10" s="60" t="s">
+      <c r="AV10" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="AT10" s="60" t="s">
+      <c r="AW10" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="AU10" s="60" t="s">
+      <c r="AX10" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="AV10" s="60" t="s">
+      <c r="AY10" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="AW10" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX10" s="59">
+      <c r="AZ10" s="58">
         <v>0.7281704</v>
       </c>
-      <c r="AY10" s="60">
+      <c r="BA10" s="59">
         <v>0.62905599999999995</v>
       </c>
-      <c r="AZ10" s="60">
+      <c r="BB10" s="59">
         <v>0.73617290000000002</v>
       </c>
-      <c r="BA10" s="60">
+      <c r="BC10" s="59">
         <v>0.62765380000000004</v>
       </c>
-      <c r="BB10" s="60">
+      <c r="BD10" s="59">
         <v>0.62617590000000001</v>
       </c>
-      <c r="BC10" s="61">
+      <c r="BE10" s="60">
         <v>0.59008579999999999</v>
       </c>
-      <c r="BD10" s="59">
+      <c r="BF10" s="58">
         <v>0.57510130000000004</v>
       </c>
-      <c r="BE10" s="60">
+      <c r="BG10" s="59">
         <v>0.25248130000000002</v>
       </c>
-      <c r="BF10" s="61">
+      <c r="BH10" s="60">
         <v>0.16775670000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="59">
+      <c r="B11" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="58">
         <v>463</v>
       </c>
-      <c r="D11" s="60">
+      <c r="F11" s="59">
         <v>0.72723780000000005</v>
       </c>
-      <c r="E11" s="60">
+      <c r="G11" s="59">
         <v>0.82198349999999998</v>
       </c>
-      <c r="F11" s="60">
+      <c r="H11" s="59">
         <v>0.36963210000000002</v>
       </c>
-      <c r="G11" s="60">
+      <c r="I11" s="59">
         <v>0.48630269999999998</v>
       </c>
-      <c r="H11" s="60">
+      <c r="J11" s="59">
         <v>1.3714109999999999</v>
       </c>
-      <c r="I11" s="60">
+      <c r="K11" s="59">
         <v>4.9542559999999999E-2</v>
       </c>
-      <c r="J11" s="60">
+      <c r="L11" s="59">
         <v>0.20852209999999999</v>
       </c>
-      <c r="K11" s="60">
+      <c r="M11" s="59">
         <v>6.3341140000000004E-2</v>
       </c>
-      <c r="L11" s="60">
+      <c r="N11" s="59">
         <v>2.6325970000000001</v>
       </c>
-      <c r="M11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="N11" s="60">
+      <c r="O11" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="59">
         <v>6</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="Q11" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="T11" s="58">
+        <v>5.0877080000000001</v>
+      </c>
+      <c r="U11" s="61">
+        <v>0.21251200000000001</v>
+      </c>
+      <c r="V11" s="61">
+        <v>5.4298220000000001E-2</v>
+      </c>
+      <c r="W11" s="61">
+        <v>5.6535370000000001E-2</v>
+      </c>
+      <c r="X11" s="42">
+        <v>0.3491398</v>
+      </c>
+      <c r="Y11" s="58">
+        <v>654.16319999999996</v>
+      </c>
+      <c r="Z11" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="R11" s="59">
-        <v>5.0877080000000001</v>
-      </c>
-      <c r="S11" s="62">
-        <v>0.21251200000000001</v>
-      </c>
-      <c r="T11" s="62">
-        <v>5.4298220000000001E-2</v>
-      </c>
-      <c r="U11" s="62">
-        <v>5.6535370000000001E-2</v>
-      </c>
-      <c r="V11" s="42">
-        <v>0.3491398</v>
-      </c>
-      <c r="W11" s="59">
-        <v>654.16319999999996</v>
-      </c>
-      <c r="X11" s="35" t="s">
+      <c r="AA11" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB11" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="Y11" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z11" s="61" t="s">
+      <c r="AC11" s="58">
+        <v>23.631799999999998</v>
+      </c>
+      <c r="AD11" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AA11" s="59">
-        <v>23.631799999999998</v>
-      </c>
-      <c r="AB11" s="35" t="s">
+      <c r="AE11" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF11" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="AC11" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD11" s="61" t="s">
+      <c r="AG11" s="58">
+        <v>389.37450000000001</v>
+      </c>
+      <c r="AH11" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AE11" s="59">
-        <v>389.37450000000001</v>
-      </c>
-      <c r="AF11" s="35" t="s">
+      <c r="AI11" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ11" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="AG11" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH11" s="61" t="s">
+      <c r="AK11" s="61">
+        <v>8.0750720000000002E-4</v>
+      </c>
+      <c r="AL11" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AI11" s="62">
-        <v>8.0750720000000002E-4</v>
-      </c>
-      <c r="AJ11" s="35" t="s">
+      <c r="AM11" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN11" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="AK11" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL11" s="63" t="s">
+      <c r="AO11" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ11" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR11" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT11" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="AM11" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO11" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP11" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="AQ11" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR11" s="59" t="s">
+      <c r="AU11" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="AS11" s="60" t="s">
+      <c r="AV11" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="AT11" s="60" t="s">
+      <c r="AW11" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="AU11" s="60" t="s">
+      <c r="AX11" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="AV11" s="60" t="s">
+      <c r="AY11" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="AW11" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX11" s="59">
+      <c r="AZ11" s="58">
         <v>0.72732810000000003</v>
       </c>
-      <c r="AY11" s="60">
+      <c r="BA11" s="59">
         <v>0.62320339999999996</v>
       </c>
-      <c r="AZ11" s="60">
+      <c r="BB11" s="59">
         <v>0.72296629999999995</v>
       </c>
-      <c r="BA11" s="60">
+      <c r="BC11" s="59">
         <v>0.62091819999999998</v>
       </c>
-      <c r="BB11" s="60">
+      <c r="BD11" s="59">
         <v>0.58684720000000001</v>
       </c>
-      <c r="BC11" s="61">
+      <c r="BE11" s="60">
         <v>0.60489130000000002</v>
       </c>
-      <c r="BD11" s="59">
+      <c r="BF11" s="58">
         <v>0.5432401</v>
       </c>
-      <c r="BE11" s="60">
+      <c r="BG11" s="59">
         <v>0.19692209999999999</v>
       </c>
-      <c r="BF11" s="61">
+      <c r="BH11" s="60">
         <v>0.1958106</v>
       </c>
     </row>
-    <row r="12" spans="1:58" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="59">
+      <c r="B12" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="58">
         <v>480</v>
       </c>
-      <c r="D12" s="60">
+      <c r="F12" s="59">
         <v>0.71104369999999995</v>
       </c>
-      <c r="E12" s="60">
+      <c r="G12" s="59">
         <v>0.82677319999999999</v>
       </c>
-      <c r="F12" s="60">
+      <c r="H12" s="59">
         <v>0.35355760000000003</v>
       </c>
-      <c r="G12" s="60">
+      <c r="I12" s="59">
         <v>0.48852760000000001</v>
       </c>
-      <c r="H12" s="60">
+      <c r="J12" s="59">
         <v>1.191622</v>
       </c>
-      <c r="I12" s="60">
+      <c r="K12" s="59">
         <v>4.822166E-2</v>
       </c>
-      <c r="J12" s="60">
+      <c r="L12" s="59">
         <v>0.2239883</v>
       </c>
-      <c r="K12" s="60">
+      <c r="M12" s="59">
         <v>7.6913179999999998E-2</v>
       </c>
-      <c r="L12" s="60">
+      <c r="N12" s="59">
         <v>2.6016789999999999</v>
       </c>
-      <c r="M12" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="N12" s="60">
+      <c r="O12" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" s="59">
         <v>5</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="Q12" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="T12" s="58">
+        <v>4.879372</v>
+      </c>
+      <c r="U12" s="61">
+        <v>0.2377824</v>
+      </c>
+      <c r="V12" s="61">
+        <v>5.1096839999999998E-2</v>
+      </c>
+      <c r="W12" s="61">
+        <v>7.510857E-2</v>
+      </c>
+      <c r="X12" s="42">
+        <v>0.36523309999999998</v>
+      </c>
+      <c r="Y12" s="58">
+        <v>587.46960000000001</v>
+      </c>
+      <c r="Z12" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="P12" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="R12" s="59">
-        <v>4.879372</v>
-      </c>
-      <c r="S12" s="62">
-        <v>0.2377824</v>
-      </c>
-      <c r="T12" s="62">
-        <v>5.1096839999999998E-2</v>
-      </c>
-      <c r="U12" s="62">
-        <v>7.510857E-2</v>
-      </c>
-      <c r="V12" s="42">
-        <v>0.36523309999999998</v>
-      </c>
-      <c r="W12" s="59">
-        <v>587.46960000000001</v>
-      </c>
-      <c r="X12" s="35" t="s">
+      <c r="AA12" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB12" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="Y12" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z12" s="61" t="s">
+      <c r="AC12" s="58">
+        <v>23.77328</v>
+      </c>
+      <c r="AD12" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="AA12" s="59">
-        <v>23.77328</v>
-      </c>
-      <c r="AB12" s="35" t="s">
+      <c r="AE12" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF12" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="AC12" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD12" s="61" t="s">
+      <c r="AG12" s="58">
+        <v>394.81380000000001</v>
+      </c>
+      <c r="AH12" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="AE12" s="59">
-        <v>394.81380000000001</v>
-      </c>
-      <c r="AF12" s="35" t="s">
+      <c r="AI12" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ12" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="AG12" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH12" s="61" t="s">
+      <c r="AK12" s="61">
+        <v>7.894547E-4</v>
+      </c>
+      <c r="AL12" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="AI12" s="62">
-        <v>7.894547E-4</v>
-      </c>
-      <c r="AJ12" s="35" t="s">
+      <c r="AM12" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN12" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="AK12" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL12" s="63" t="s">
+      <c r="AO12" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ12" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR12" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS12" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT12" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="AM12" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO12" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP12" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ12" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="AR12" s="59" t="s">
+      <c r="AU12" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AS12" s="60" t="s">
+      <c r="AV12" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AT12" s="60" t="s">
+      <c r="AW12" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AU12" s="60" t="s">
+      <c r="AX12" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AV12" s="60" t="s">
+      <c r="AY12" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="AW12" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="AX12" s="59">
+      <c r="AZ12" s="58">
         <v>0.71283059999999998</v>
       </c>
-      <c r="AY12" s="60">
+      <c r="BA12" s="59">
         <v>0.6069099</v>
       </c>
-      <c r="AZ12" s="60">
+      <c r="BB12" s="59">
         <v>0.71601910000000002</v>
       </c>
-      <c r="BA12" s="60">
+      <c r="BC12" s="59">
         <v>0.59445570000000003</v>
       </c>
-      <c r="BB12" s="60">
+      <c r="BD12" s="59">
         <v>0.58245650000000004</v>
       </c>
-      <c r="BC12" s="61">
+      <c r="BE12" s="60">
         <v>0.53227000000000002</v>
       </c>
-      <c r="BD12" s="59">
+      <c r="BF12" s="58">
         <v>0.4717131</v>
       </c>
-      <c r="BE12" s="60">
+      <c r="BG12" s="59">
         <v>0.32405129999999999</v>
       </c>
-      <c r="BF12" s="61">
+      <c r="BH12" s="60">
         <v>0.1515543</v>
       </c>
     </row>
-    <row r="13" spans="1:58" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="59">
+      <c r="B13" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="58">
         <v>484</v>
       </c>
-      <c r="D13" s="60">
+      <c r="F13" s="59">
         <v>0.71816880000000005</v>
       </c>
-      <c r="E13" s="60">
+      <c r="G13" s="59">
         <v>0.8245614</v>
       </c>
-      <c r="F13" s="60">
+      <c r="H13" s="59">
         <v>0.34086739999999999</v>
       </c>
-      <c r="G13" s="60">
+      <c r="I13" s="59">
         <v>0.4713019</v>
       </c>
-      <c r="H13" s="60">
+      <c r="J13" s="59">
         <v>1.022232</v>
       </c>
-      <c r="I13" s="60">
+      <c r="K13" s="59">
         <v>4.4400269999999999E-2</v>
       </c>
-      <c r="J13" s="60">
+      <c r="L13" s="59">
         <v>0.1726473</v>
       </c>
-      <c r="K13" s="60">
+      <c r="M13" s="59">
         <v>7.0289000000000004E-2</v>
       </c>
-      <c r="L13" s="60">
+      <c r="N13" s="59">
         <v>2.639062</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="N13" s="60">
+      <c r="O13" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="59">
         <v>5</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="Q13" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="T13" s="58">
+        <v>4.2421819999999997</v>
+      </c>
+      <c r="U13" s="61">
+        <v>0.15639500000000001</v>
+      </c>
+      <c r="V13" s="61">
+        <v>5.8289349999999997E-2</v>
+      </c>
+      <c r="W13" s="61">
+        <v>5.7023289999999997E-2</v>
+      </c>
+      <c r="X13" s="42">
+        <v>0.29181259999999998</v>
+      </c>
+      <c r="Y13" s="58">
+        <v>514.1825</v>
+      </c>
+      <c r="Z13" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="P13" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="R13" s="59">
-        <v>4.2421819999999997</v>
-      </c>
-      <c r="S13" s="62">
-        <v>0.15639500000000001</v>
-      </c>
-      <c r="T13" s="62">
-        <v>5.8289349999999997E-2</v>
-      </c>
-      <c r="U13" s="62">
-        <v>5.7023289999999997E-2</v>
-      </c>
-      <c r="V13" s="42">
-        <v>0.29181259999999998</v>
-      </c>
-      <c r="W13" s="59">
-        <v>514.1825</v>
-      </c>
-      <c r="X13" s="35" t="s">
+      <c r="AA13" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB13" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="Y13" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z13" s="61" t="s">
+      <c r="AC13" s="58">
+        <v>22.33333</v>
+      </c>
+      <c r="AD13" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="AA13" s="59">
-        <v>22.33333</v>
-      </c>
-      <c r="AB13" s="35" t="s">
+      <c r="AE13" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF13" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="AC13" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD13" s="61" t="s">
+      <c r="AG13" s="58">
+        <v>412.2242</v>
+      </c>
+      <c r="AH13" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="AE13" s="59">
-        <v>412.2242</v>
-      </c>
-      <c r="AF13" s="35" t="s">
+      <c r="AI13" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ13" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="AG13" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH13" s="61" t="s">
+      <c r="AK13" s="61">
+        <v>7.6231620000000004E-4</v>
+      </c>
+      <c r="AL13" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="AI13" s="62">
-        <v>7.6231620000000004E-4</v>
-      </c>
-      <c r="AJ13" s="35" t="s">
+      <c r="AM13" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN13" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="AK13" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL13" s="63" t="s">
+      <c r="AO13" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ13" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR13" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS13" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT13" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="AM13" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO13" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP13" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ13" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR13" s="59" t="s">
+      <c r="AU13" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="AS13" s="60" t="s">
+      <c r="AV13" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="AT13" s="60" t="s">
+      <c r="AW13" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="AU13" s="60" t="s">
+      <c r="AX13" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AV13" s="60" t="s">
+      <c r="AY13" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="AW13" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="AX13" s="59">
+      <c r="AZ13" s="58">
         <v>0.69271190000000005</v>
       </c>
-      <c r="AY13" s="60">
+      <c r="BA13" s="59">
         <v>0.61030779999999996</v>
       </c>
-      <c r="AZ13" s="60">
+      <c r="BB13" s="59">
         <v>0.6989784</v>
       </c>
-      <c r="BA13" s="60">
+      <c r="BC13" s="59">
         <v>0.60290489999999997</v>
       </c>
-      <c r="BB13" s="60">
+      <c r="BD13" s="59">
         <v>0.57967500000000005</v>
       </c>
-      <c r="BC13" s="61">
+      <c r="BE13" s="60">
         <v>0.4996099</v>
       </c>
-      <c r="BD13" s="59">
+      <c r="BF13" s="58">
         <v>0.38008550000000002</v>
       </c>
-      <c r="BE13" s="60">
+      <c r="BG13" s="59">
         <v>0.404561</v>
       </c>
-      <c r="BF13" s="61">
+      <c r="BH13" s="60">
         <v>0.15406500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:58" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="A14" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="59">
+      <c r="B14" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="58">
         <v>499</v>
       </c>
-      <c r="D14" s="60">
+      <c r="F14" s="59">
         <v>0.72718369999999999</v>
       </c>
-      <c r="E14" s="60">
+      <c r="G14" s="59">
         <v>0.82606740000000001</v>
       </c>
-      <c r="F14" s="60">
+      <c r="H14" s="59">
         <v>0.33975430000000001</v>
       </c>
-      <c r="G14" s="60">
+      <c r="I14" s="59">
         <v>0.45565709999999998</v>
       </c>
-      <c r="H14" s="60">
+      <c r="J14" s="59">
         <v>1.1886369999999999</v>
       </c>
-      <c r="I14" s="60">
+      <c r="K14" s="59">
         <v>4.9337010000000001E-2</v>
       </c>
-      <c r="J14" s="87">
+      <c r="L14" s="86">
         <v>0.265351</v>
       </c>
-      <c r="K14" s="60">
+      <c r="M14" s="59">
         <v>0.1159336</v>
       </c>
-      <c r="L14" s="60">
+      <c r="N14" s="59">
         <v>2.5471270000000001</v>
       </c>
-      <c r="M14" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="N14" s="60">
+      <c r="O14" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="59">
         <v>6</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="Q14" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="T14" s="58">
+        <v>3.9164219999999998</v>
+      </c>
+      <c r="U14" s="61">
+        <v>0.18412600000000001</v>
+      </c>
+      <c r="V14" s="61">
+        <v>7.7107659999999995E-2</v>
+      </c>
+      <c r="W14" s="61">
+        <v>7.4221099999999998E-2</v>
+      </c>
+      <c r="X14" s="42">
+        <v>0.3072551</v>
+      </c>
+      <c r="Y14" s="58">
+        <v>610.95920000000001</v>
+      </c>
+      <c r="Z14" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="P14" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="R14" s="59">
-        <v>3.9164219999999998</v>
-      </c>
-      <c r="S14" s="62">
-        <v>0.18412600000000001</v>
-      </c>
-      <c r="T14" s="62">
-        <v>7.7107659999999995E-2</v>
-      </c>
-      <c r="U14" s="62">
-        <v>7.4221099999999998E-2</v>
-      </c>
-      <c r="V14" s="42">
-        <v>0.3072551</v>
-      </c>
-      <c r="W14" s="59">
-        <v>610.95920000000001</v>
-      </c>
-      <c r="X14" s="35" t="s">
+      <c r="AA14" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB14" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="Y14" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z14" s="61" t="s">
+      <c r="AC14" s="58">
+        <v>25.359220000000001</v>
+      </c>
+      <c r="AD14" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="AA14" s="59">
-        <v>25.359220000000001</v>
-      </c>
-      <c r="AB14" s="35" t="s">
+      <c r="AE14" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="AC14" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD14" s="61" t="s">
+      <c r="AG14" s="58">
+        <v>397.61169999999998</v>
+      </c>
+      <c r="AH14" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="AE14" s="59">
-        <v>397.61169999999998</v>
-      </c>
-      <c r="AF14" s="35" t="s">
+      <c r="AI14" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ14" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="AG14" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH14" s="61" t="s">
+      <c r="AK14" s="61">
+        <v>7.7264830000000001E-4</v>
+      </c>
+      <c r="AL14" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="AI14" s="62">
-        <v>7.7264830000000001E-4</v>
-      </c>
-      <c r="AJ14" s="35" t="s">
+      <c r="AM14" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN14" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="AK14" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL14" s="63" t="s">
+      <c r="AO14" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ14" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR14" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS14" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT14" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="AM14" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="AO14" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP14" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ14" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR14" s="59" t="s">
+      <c r="AU14" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AS14" s="60" t="s">
+      <c r="AV14" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="AT14" s="60" t="s">
+      <c r="AW14" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="AU14" s="60" t="s">
+      <c r="AX14" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="AV14" s="60" t="s">
+      <c r="AY14" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="AW14" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX14" s="59">
+      <c r="AZ14" s="58">
         <v>0.70865319999999998</v>
       </c>
-      <c r="AY14" s="60">
+      <c r="BA14" s="59">
         <v>0.58153569999999999</v>
       </c>
-      <c r="AZ14" s="60">
+      <c r="BB14" s="59">
         <v>0.70335979999999998</v>
       </c>
-      <c r="BA14" s="60">
+      <c r="BC14" s="59">
         <v>0.58605759999999996</v>
       </c>
-      <c r="BB14" s="60">
+      <c r="BD14" s="59">
         <v>0.58208550000000003</v>
       </c>
-      <c r="BC14" s="61">
+      <c r="BE14" s="60">
         <v>0.57243840000000001</v>
       </c>
-      <c r="BD14" s="59">
+      <c r="BF14" s="58">
         <v>0.48460419999999998</v>
       </c>
-      <c r="BE14" s="60">
+      <c r="BG14" s="59">
         <v>0.31715710000000003</v>
       </c>
-      <c r="BF14" s="61">
+      <c r="BH14" s="60">
         <v>0.16052130000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:58" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="C15" s="59">
+      <c r="B15" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="58">
         <v>504</v>
       </c>
-      <c r="D15" s="60">
+      <c r="F15" s="59">
         <v>0.71583799999999997</v>
       </c>
-      <c r="E15" s="60">
+      <c r="G15" s="59">
         <v>0.74757870000000004</v>
       </c>
-      <c r="F15" s="87">
+      <c r="H15" s="86">
         <v>0.27489360000000002</v>
       </c>
-      <c r="G15" s="60">
+      <c r="I15" s="59">
         <v>0.51509070000000001</v>
       </c>
-      <c r="H15" s="60">
+      <c r="J15" s="59">
         <v>1.070614</v>
       </c>
-      <c r="I15" s="60">
+      <c r="K15" s="59">
         <v>5.2577600000000002E-2</v>
       </c>
-      <c r="J15" s="60">
+      <c r="L15" s="59">
         <v>0.19468930000000001</v>
       </c>
-      <c r="K15" s="60">
+      <c r="M15" s="59">
         <v>7.3592729999999995E-2</v>
       </c>
-      <c r="L15" s="60">
+      <c r="N15" s="59">
         <v>2.1217410000000001</v>
       </c>
-      <c r="M15" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="N15" s="60">
+      <c r="O15" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="P15" s="59">
         <v>4</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="Q15" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="R15" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="T15" s="58">
+        <v>4.5309189999999999</v>
+      </c>
+      <c r="U15" s="61">
+        <v>0.80949139999999997</v>
+      </c>
+      <c r="V15" s="61">
+        <v>0.42785079999999998</v>
+      </c>
+      <c r="W15" s="61">
+        <v>0.56447309999999995</v>
+      </c>
+      <c r="X15" s="42">
+        <v>0.80599989999999999</v>
+      </c>
+      <c r="Y15" s="58">
+        <v>558.86040000000003</v>
+      </c>
+      <c r="Z15" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="P15" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="R15" s="59">
-        <v>4.5309189999999999</v>
-      </c>
-      <c r="S15" s="62">
-        <v>0.80949139999999997</v>
-      </c>
-      <c r="T15" s="62">
-        <v>0.42785079999999998</v>
-      </c>
-      <c r="U15" s="62">
-        <v>0.56447309999999995</v>
-      </c>
-      <c r="V15" s="42">
-        <v>0.80599989999999999</v>
-      </c>
-      <c r="W15" s="59">
-        <v>558.86040000000003</v>
-      </c>
-      <c r="X15" s="35" t="s">
+      <c r="AA15" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB15" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="Y15" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z15" s="61" t="s">
+      <c r="AC15" s="58">
+        <v>27.445509999999999</v>
+      </c>
+      <c r="AD15" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="AA15" s="59">
-        <v>27.445509999999999</v>
-      </c>
-      <c r="AB15" s="35" t="s">
+      <c r="AE15" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF15" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="AC15" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD15" s="61" t="s">
+      <c r="AG15" s="102">
+        <v>292.77440000000001</v>
+      </c>
+      <c r="AH15" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="AE15" s="103">
-        <v>292.77440000000001</v>
-      </c>
-      <c r="AF15" s="88" t="s">
+      <c r="AI15" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ15" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="AG15" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH15" s="61" t="s">
+      <c r="AK15" s="61">
+        <v>9.1368600000000003E-4</v>
+      </c>
+      <c r="AL15" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="AI15" s="62">
-        <v>9.1368600000000003E-4</v>
-      </c>
-      <c r="AJ15" s="35" t="s">
+      <c r="AM15" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN15" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="AK15" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL15" s="63" t="s">
+      <c r="AO15" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ15" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR15" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="AS15" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT15" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="AM15" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO15" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP15" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="AQ15" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR15" s="59" t="s">
+      <c r="AU15" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="AS15" s="60" t="s">
+      <c r="AV15" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="AT15" s="60" t="s">
+      <c r="AW15" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="AU15" s="60" t="s">
+      <c r="AX15" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="AV15" s="60" t="s">
+      <c r="AY15" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="AW15" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX15" s="59">
+      <c r="AZ15" s="58">
         <v>0.69673439999999998</v>
       </c>
-      <c r="AY15" s="60">
+      <c r="BA15" s="59">
         <v>0.52478089999999999</v>
       </c>
-      <c r="AZ15" s="60">
+      <c r="BB15" s="59">
         <v>0.68840159999999995</v>
       </c>
-      <c r="BA15" s="60">
+      <c r="BC15" s="59">
         <v>0.49747229999999998</v>
       </c>
-      <c r="BB15" s="60">
+      <c r="BD15" s="59">
         <v>0.58318499999999995</v>
       </c>
-      <c r="BC15" s="61">
+      <c r="BE15" s="60">
         <v>8.5712969999999999E-2</v>
       </c>
-      <c r="BD15" s="59">
+      <c r="BF15" s="58">
         <v>0.40980030000000001</v>
       </c>
-      <c r="BE15" s="60">
+      <c r="BG15" s="59">
         <v>0.31063590000000002</v>
       </c>
-      <c r="BF15" s="61">
+      <c r="BH15" s="60">
         <v>0.1876485</v>
       </c>
     </row>
-    <row r="16" spans="1:58" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" s="41" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="58">
+        <v>533</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.70530630000000005</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0.76805199999999996</v>
+      </c>
+      <c r="H16" s="86">
+        <v>0.2655711</v>
+      </c>
+      <c r="I16" s="59">
+        <v>0.50416079999999996</v>
+      </c>
+      <c r="J16" s="86">
+        <v>0.83666720000000006</v>
+      </c>
+      <c r="K16" s="59">
+        <v>5.3103190000000002E-2</v>
+      </c>
+      <c r="L16" s="59">
+        <v>0.17466370000000001</v>
+      </c>
+      <c r="M16" s="59">
+        <v>5.6838060000000003E-2</v>
+      </c>
+      <c r="N16" s="59">
+        <v>2.0900599999999998</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="P16" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="T16" s="58">
+        <v>4.461322</v>
+      </c>
+      <c r="U16" s="61">
+        <v>0.79150379999999998</v>
+      </c>
+      <c r="V16" s="61">
+        <v>0.54211189999999998</v>
+      </c>
+      <c r="W16" s="61">
+        <v>0.51954409999999995</v>
+      </c>
+      <c r="X16" s="42">
+        <v>0.76585040000000004</v>
+      </c>
+      <c r="Y16" s="58">
+        <v>457.65690000000001</v>
+      </c>
+      <c r="Z16" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA16" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB16" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC16" s="58">
+        <v>29.047450000000001</v>
+      </c>
+      <c r="AD16" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE16" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF16" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG16" s="102">
+        <v>298.13139999999999</v>
+      </c>
+      <c r="AH16" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI16" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ16" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK16" s="61">
+        <v>8.8164950000000004E-4</v>
+      </c>
+      <c r="AL16" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM16" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN16" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO16" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ16" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR16" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="AS16" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT16" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="AU16" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="AV16" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW16" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX16" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="AY16" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ16" s="58">
+        <v>0.68434249999999996</v>
+      </c>
+      <c r="BA16" s="59">
+        <v>0.49265560000000003</v>
+      </c>
+      <c r="BB16" s="59">
+        <v>0.66961530000000002</v>
+      </c>
+      <c r="BC16" s="59">
+        <v>0.47662880000000002</v>
+      </c>
+      <c r="BD16" s="59">
+        <v>0.58289769999999996</v>
+      </c>
+      <c r="BE16" s="60">
+        <v>0.229466</v>
+      </c>
+      <c r="BF16" s="58">
+        <v>0.40464739999999999</v>
+      </c>
+      <c r="BG16" s="59">
+        <v>0.3428213</v>
+      </c>
+      <c r="BH16" s="60">
+        <v>0.1417417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" s="95" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A17" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="90">
+        <v>533</v>
+      </c>
+      <c r="F17" s="91">
+        <v>0.72941339999999999</v>
+      </c>
+      <c r="G17" s="91">
+        <v>0.74692040000000004</v>
+      </c>
+      <c r="H17" s="91">
+        <v>0.2944138</v>
+      </c>
+      <c r="I17" s="91">
+        <v>0.54567790000000005</v>
+      </c>
+      <c r="J17" s="91">
+        <v>1.6177109999999999</v>
+      </c>
+      <c r="K17" s="91">
+        <v>6.2983200000000003E-2</v>
+      </c>
+      <c r="L17" s="91">
+        <v>0.1627895</v>
+      </c>
+      <c r="M17" s="91">
+        <v>6.2290850000000002E-2</v>
+      </c>
+      <c r="N17" s="91">
+        <v>1.9900610000000001</v>
+      </c>
+      <c r="O17" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="P17" s="91">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="59">
-        <v>533</v>
-      </c>
-      <c r="D16" s="60">
-        <v>0.70530630000000005</v>
-      </c>
-      <c r="E16" s="60">
-        <v>0.76805199999999996</v>
-      </c>
-      <c r="F16" s="87">
-        <v>0.2655711</v>
-      </c>
-      <c r="G16" s="60">
-        <v>0.50416079999999996</v>
-      </c>
-      <c r="H16" s="87">
-        <v>0.83666720000000006</v>
-      </c>
-      <c r="I16" s="60">
-        <v>5.3103190000000002E-2</v>
-      </c>
-      <c r="J16" s="60">
-        <v>0.17466370000000001</v>
-      </c>
-      <c r="K16" s="60">
-        <v>5.6838060000000003E-2</v>
-      </c>
-      <c r="L16" s="60">
-        <v>2.0900599999999998</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="N16" s="60">
-        <v>4</v>
-      </c>
-      <c r="O16" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="P16" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="R16" s="59">
-        <v>4.461322</v>
-      </c>
-      <c r="S16" s="62">
-        <v>0.79150379999999998</v>
-      </c>
-      <c r="T16" s="62">
-        <v>0.54211189999999998</v>
-      </c>
-      <c r="U16" s="62">
-        <v>0.51954409999999995</v>
-      </c>
-      <c r="V16" s="42">
-        <v>0.76585040000000004</v>
-      </c>
-      <c r="W16" s="59">
-        <v>457.65690000000001</v>
-      </c>
-      <c r="X16" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y16" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z16" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA16" s="59">
-        <v>29.047450000000001</v>
-      </c>
-      <c r="AB16" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC16" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD16" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE16" s="103">
-        <v>298.13139999999999</v>
-      </c>
-      <c r="AF16" s="88" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG16" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH16" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI16" s="62">
-        <v>8.8164950000000004E-4</v>
-      </c>
-      <c r="AJ16" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK16" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL16" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM16" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="AO16" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="AP16" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="AQ16" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="AR16" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="AS16" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="AT16" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU16" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV16" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="AW16" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="AX16" s="59">
-        <v>0.68434249999999996</v>
-      </c>
-      <c r="AY16" s="60">
-        <v>0.49265560000000003</v>
-      </c>
-      <c r="AZ16" s="60">
-        <v>0.66961530000000002</v>
-      </c>
-      <c r="BA16" s="60">
-        <v>0.47662880000000002</v>
-      </c>
-      <c r="BB16" s="60">
-        <v>0.58289769999999996</v>
-      </c>
-      <c r="BC16" s="61">
-        <v>0.229466</v>
-      </c>
-      <c r="BD16" s="59">
-        <v>0.40464739999999999</v>
-      </c>
-      <c r="BE16" s="60">
-        <v>0.3428213</v>
-      </c>
-      <c r="BF16" s="61">
-        <v>0.1417417</v>
+      <c r="R17" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="T17" s="102">
+        <v>24.358740000000001</v>
+      </c>
+      <c r="U17" s="96">
+        <v>0.8881038</v>
+      </c>
+      <c r="V17" s="96">
+        <v>0.45559319999999998</v>
+      </c>
+      <c r="W17" s="96">
+        <v>0.53217060000000005</v>
+      </c>
+      <c r="X17" s="97">
+        <v>0.89920149999999999</v>
+      </c>
+      <c r="Y17" s="90">
+        <v>892.97649999999999</v>
+      </c>
+      <c r="Z17" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB17" s="99" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC17" s="90">
+        <v>34.766730000000003</v>
+      </c>
+      <c r="AD17" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE17" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF17" s="99" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG17" s="102">
+        <v>273.2568</v>
+      </c>
+      <c r="AH17" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI17" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ17" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK17" s="96">
+        <v>9.1483160000000005E-4</v>
+      </c>
+      <c r="AL17" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM17" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN17" s="93" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO17" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ17" s="101" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR17" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS17" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT17" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU17" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AV17" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW17" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="AX17" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="AY17" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ17" s="90">
+        <v>0.69762599999999997</v>
+      </c>
+      <c r="BA17" s="91">
+        <v>0.4638486</v>
+      </c>
+      <c r="BB17" s="91">
+        <v>0.67455319999999996</v>
+      </c>
+      <c r="BC17" s="91">
+        <v>0.44681149999999997</v>
+      </c>
+      <c r="BD17" s="91">
+        <v>0.60504380000000002</v>
+      </c>
+      <c r="BE17" s="99">
+        <v>0.19558349999999999</v>
+      </c>
+      <c r="BF17" s="90">
+        <v>0.41521150000000001</v>
+      </c>
+      <c r="BG17" s="91">
+        <v>0.28068209999999999</v>
+      </c>
+      <c r="BH17" s="99">
+        <v>0.13335520000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:58" s="96" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="91">
-        <v>533</v>
-      </c>
-      <c r="D17" s="92">
-        <v>0.72941339999999999</v>
-      </c>
-      <c r="E17" s="92">
-        <v>0.74692040000000004</v>
-      </c>
-      <c r="F17" s="92">
-        <v>0.2944138</v>
-      </c>
-      <c r="G17" s="92">
-        <v>0.54567790000000005</v>
-      </c>
-      <c r="H17" s="92">
-        <v>1.6177109999999999</v>
-      </c>
-      <c r="I17" s="92">
-        <v>6.2983200000000003E-2</v>
-      </c>
-      <c r="J17" s="92">
-        <v>0.1627895</v>
-      </c>
-      <c r="K17" s="92">
-        <v>6.2290850000000002E-2</v>
-      </c>
-      <c r="L17" s="92">
-        <v>1.9900610000000001</v>
-      </c>
-      <c r="M17" s="93" t="s">
-        <v>369</v>
-      </c>
-      <c r="N17" s="92">
-        <v>4</v>
-      </c>
-      <c r="O17" s="94" t="s">
-        <v>347</v>
-      </c>
-      <c r="P17" s="95" t="s">
-        <v>368</v>
-      </c>
-      <c r="R17" s="103">
-        <v>24.358740000000001</v>
-      </c>
-      <c r="S17" s="97">
-        <v>0.8881038</v>
-      </c>
-      <c r="T17" s="97">
-        <v>0.45559319999999998</v>
-      </c>
-      <c r="U17" s="97">
-        <v>0.53217060000000005</v>
-      </c>
-      <c r="V17" s="98">
-        <v>0.89920149999999999</v>
-      </c>
-      <c r="W17" s="91">
-        <v>892.97649999999999</v>
-      </c>
-      <c r="X17" s="99" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y17" s="93" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z17" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA17" s="91">
-        <v>34.766730000000003</v>
-      </c>
-      <c r="AB17" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC17" s="93" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD17" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE17" s="103">
-        <v>273.2568</v>
-      </c>
-      <c r="AF17" s="88" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG17" s="93" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH17" s="100" t="s">
-        <v>352</v>
-      </c>
-      <c r="AI17" s="97">
-        <v>9.1483160000000005E-4</v>
-      </c>
-      <c r="AJ17" s="99" t="s">
-        <v>353</v>
-      </c>
-      <c r="AK17" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="AL17" s="94" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM17" s="101" t="s">
-        <v>363</v>
-      </c>
-      <c r="AO17" s="102" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP17" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ17" s="93" t="s">
-        <v>360</v>
-      </c>
-      <c r="AR17" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="AS17" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="AT17" s="92" t="s">
-        <v>356</v>
-      </c>
-      <c r="AU17" s="92" t="s">
-        <v>357</v>
-      </c>
-      <c r="AV17" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="AW17" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="AX17" s="91">
-        <v>0.69762599999999997</v>
-      </c>
-      <c r="AY17" s="92">
-        <v>0.4638486</v>
-      </c>
-      <c r="AZ17" s="92">
-        <v>0.67455319999999996</v>
-      </c>
-      <c r="BA17" s="92">
-        <v>0.44681149999999997</v>
-      </c>
-      <c r="BB17" s="92">
-        <v>0.60504380000000002</v>
-      </c>
-      <c r="BC17" s="100">
-        <v>0.19558349999999999</v>
-      </c>
-      <c r="BD17" s="91">
-        <v>0.41521150000000001</v>
-      </c>
-      <c r="BE17" s="92">
-        <v>0.28068209999999999</v>
-      </c>
-      <c r="BF17" s="100">
-        <v>0.13335520000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:60" s="41" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" s="59">
+      <c r="B18" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="58">
         <v>546</v>
       </c>
-      <c r="D18" s="60">
+      <c r="F18" s="59">
         <v>0.72213760000000005</v>
       </c>
-      <c r="E18" s="60">
+      <c r="G18" s="59">
         <v>0.78938509999999995</v>
       </c>
-      <c r="F18" s="60">
+      <c r="H18" s="59">
         <v>0.3423426</v>
       </c>
-      <c r="G18" s="60">
+      <c r="I18" s="59">
         <v>0.51050220000000002</v>
       </c>
-      <c r="H18" s="60">
+      <c r="J18" s="59">
         <v>1.366109</v>
       </c>
-      <c r="I18" s="60">
+      <c r="K18" s="59">
         <v>5.4648500000000003E-2</v>
       </c>
-      <c r="J18" s="87">
+      <c r="L18" s="86">
         <v>0.21793570000000001</v>
       </c>
-      <c r="K18" s="60">
+      <c r="M18" s="59">
         <v>8.5568770000000002E-2</v>
       </c>
-      <c r="L18" s="60">
+      <c r="N18" s="59">
         <v>2.4668380000000001</v>
       </c>
-      <c r="M18" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="N18" s="60">
+      <c r="O18" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="P18" s="59">
         <v>5</v>
       </c>
-      <c r="O18" s="63" t="s">
+      <c r="Q18" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="R18" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="T18" s="58">
+        <v>10.71766</v>
+      </c>
+      <c r="U18" s="61">
+        <v>0.34151209999999999</v>
+      </c>
+      <c r="V18" s="61">
+        <v>8.6069980000000004E-2</v>
+      </c>
+      <c r="W18" s="61">
+        <v>9.3230279999999999E-2</v>
+      </c>
+      <c r="X18" s="42">
+        <v>0.41459020000000002</v>
+      </c>
+      <c r="Y18" s="58">
+        <v>782.78049999999996</v>
+      </c>
+      <c r="Z18" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="P18" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="R18" s="59">
-        <v>10.71766</v>
-      </c>
-      <c r="S18" s="62">
-        <v>0.34151209999999999</v>
-      </c>
-      <c r="T18" s="62">
-        <v>8.6069980000000004E-2</v>
-      </c>
-      <c r="U18" s="62">
-        <v>9.3230279999999999E-2</v>
-      </c>
-      <c r="V18" s="42">
-        <v>0.41459020000000002</v>
-      </c>
-      <c r="W18" s="59">
-        <v>782.78049999999996</v>
-      </c>
-      <c r="X18" s="35" t="s">
+      <c r="AA18" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB18" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="Y18" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z18" s="61" t="s">
+      <c r="AC18" s="58">
+        <v>31.313590000000001</v>
+      </c>
+      <c r="AD18" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="AA18" s="59">
-        <v>31.313590000000001</v>
-      </c>
-      <c r="AB18" s="88" t="s">
+      <c r="AE18" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF18" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="AC18" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD18" s="61" t="s">
+      <c r="AG18" s="58">
+        <v>420.2491</v>
+      </c>
+      <c r="AH18" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="AE18" s="59">
-        <v>420.2491</v>
-      </c>
-      <c r="AF18" s="35" t="s">
+      <c r="AI18" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ18" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="AG18" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH18" s="61" t="s">
+      <c r="AK18" s="61">
+        <v>7.1792280000000002E-4</v>
+      </c>
+      <c r="AL18" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="AI18" s="62">
-        <v>7.1792280000000002E-4</v>
-      </c>
-      <c r="AJ18" s="35" t="s">
+      <c r="AM18" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN18" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO18" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ18" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR18" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="AS18" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT18" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="AK18" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL18" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM18" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="AO18" s="68" t="s">
-        <v>386</v>
-      </c>
-      <c r="AP18" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="AQ18" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR18" s="59" t="s">
+      <c r="AU18" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="AS18" s="60" t="s">
+      <c r="AV18" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="AT18" s="60" t="s">
+      <c r="AW18" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="AU18" s="60" t="s">
+      <c r="AX18" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY18" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="AV18" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="AW18" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX18" s="59">
+      <c r="AZ18" s="58">
         <v>0.67791369999999995</v>
       </c>
-      <c r="AY18" s="60">
+      <c r="BA18" s="59">
         <v>0.49124190000000001</v>
       </c>
-      <c r="AZ18" s="60">
+      <c r="BB18" s="59">
         <v>0.64277969999999995</v>
       </c>
-      <c r="BA18" s="60">
+      <c r="BC18" s="59">
         <v>0.46994170000000002</v>
       </c>
-      <c r="BB18" s="60">
+      <c r="BD18" s="59">
         <v>0.56908259999999999</v>
       </c>
-      <c r="BC18" s="61">
+      <c r="BE18" s="60">
         <v>0.28449210000000003</v>
       </c>
-      <c r="BD18" s="59">
+      <c r="BF18" s="58">
         <v>0.38424510000000001</v>
       </c>
-      <c r="BE18" s="60">
+      <c r="BG18" s="59">
         <v>0.39136520000000002</v>
       </c>
-      <c r="BF18" s="61">
+      <c r="BH18" s="60">
         <v>0.17093549999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:58" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:60" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="A19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="C19" s="103">
+      <c r="B19" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="102">
         <v>517</v>
       </c>
-      <c r="D19" s="60">
+      <c r="F19" s="59">
         <v>0.6510861</v>
       </c>
-      <c r="E19" s="60">
+      <c r="G19" s="59">
         <v>0.71232099999999998</v>
       </c>
-      <c r="F19" s="60">
+      <c r="H19" s="59">
         <v>0.31618960000000002</v>
       </c>
-      <c r="G19" s="60">
+      <c r="I19" s="59">
         <v>0.4474417</v>
       </c>
-      <c r="H19" s="87">
+      <c r="J19" s="86">
         <v>0.44612089999999999</v>
       </c>
-      <c r="I19" s="60">
+      <c r="K19" s="59">
         <v>4.2303109999999998E-2</v>
       </c>
-      <c r="J19" s="60">
+      <c r="L19" s="59">
         <v>0.12767829999999999</v>
       </c>
-      <c r="K19" s="60">
+      <c r="M19" s="59">
         <v>5.1652000000000003E-2</v>
       </c>
-      <c r="L19" s="60">
+      <c r="N19" s="59">
         <v>2.676482</v>
       </c>
-      <c r="M19" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="N19" s="60">
+      <c r="O19" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="P19" s="59">
         <v>6</v>
       </c>
-      <c r="O19" s="63" t="s">
+      <c r="Q19" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="R19" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="T19" s="58">
+        <v>3.758826</v>
+      </c>
+      <c r="U19" s="61">
+        <v>0.14674280000000001</v>
+      </c>
+      <c r="V19" s="61">
+        <v>5.7000349999999998E-2</v>
+      </c>
+      <c r="W19" s="61">
+        <v>5.5789610000000003E-2</v>
+      </c>
+      <c r="X19" s="42">
+        <v>0.26877600000000001</v>
+      </c>
+      <c r="Y19" s="102">
+        <v>252.5044</v>
+      </c>
+      <c r="Z19" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="P19" s="65" t="s">
-        <v>419</v>
-      </c>
-      <c r="R19" s="59">
-        <v>3.758826</v>
-      </c>
-      <c r="S19" s="62">
-        <v>0.14674280000000001</v>
-      </c>
-      <c r="T19" s="62">
-        <v>5.7000349999999998E-2</v>
-      </c>
-      <c r="U19" s="62">
-        <v>5.5789610000000003E-2</v>
-      </c>
-      <c r="V19" s="42">
-        <v>0.26877600000000001</v>
-      </c>
-      <c r="W19" s="103">
-        <v>252.5044</v>
-      </c>
-      <c r="X19" s="88" t="s">
+      <c r="AA19" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB19" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="Y19" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z19" s="61" t="s">
+      <c r="AC19" s="102">
+        <v>23.943560000000002</v>
+      </c>
+      <c r="AD19" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="AA19" s="103">
-        <v>23.943560000000002</v>
-      </c>
-      <c r="AB19" s="88" t="s">
+      <c r="AE19" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF19" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="AC19" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD19" s="61" t="s">
+      <c r="AG19" s="58">
+        <v>474.44439999999997</v>
+      </c>
+      <c r="AH19" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="AE19" s="59">
-        <v>474.44439999999997</v>
-      </c>
-      <c r="AF19" s="35" t="s">
+      <c r="AI19" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ19" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="AG19" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="AH19" s="61" t="s">
+      <c r="AK19" s="61">
+        <v>6.7063470000000005E-4</v>
+      </c>
+      <c r="AL19" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="AI19" s="62">
-        <v>6.7063470000000005E-4</v>
-      </c>
-      <c r="AJ19" s="35" t="s">
+      <c r="AM19" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN19" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="AK19" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="AL19" s="63" t="s">
+      <c r="AO19" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ19" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="AR19" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="AS19" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="AT19" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="AM19" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="AO19" s="68" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP19" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ19" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="AR19" s="59" t="s">
+      <c r="AU19" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="AS19" s="60" t="s">
+      <c r="AV19" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="AT19" s="60" t="s">
+      <c r="AW19" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="AU19" s="60" t="s">
+      <c r="AX19" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="AV19" s="60" t="s">
+      <c r="AY19" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="AW19" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="AX19" s="59">
+      <c r="AZ19" s="58">
         <v>0.66191199999999994</v>
       </c>
-      <c r="AY19" s="60">
+      <c r="BA19" s="59">
         <v>0.51408359999999997</v>
       </c>
-      <c r="AZ19" s="60">
+      <c r="BB19" s="59">
         <v>0.63553539999999997</v>
       </c>
-      <c r="BA19" s="60">
+      <c r="BC19" s="59">
         <v>0.48651040000000001</v>
       </c>
-      <c r="BB19" s="60">
+      <c r="BD19" s="59">
         <v>0.56180160000000001</v>
       </c>
-      <c r="BC19" s="61">
+      <c r="BE19" s="60">
         <v>0.3501881</v>
       </c>
-      <c r="BD19" s="59">
+      <c r="BF19" s="58">
         <v>0.39639760000000002</v>
       </c>
-      <c r="BE19" s="60">
+      <c r="BG19" s="59">
         <v>0.41362270000000001</v>
       </c>
-      <c r="BF19" s="61">
+      <c r="BH19" s="60">
         <v>0.15875510000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:58" s="84" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="80"/>
+    <row r="20" spans="1:60" s="83" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="85"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="83"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="84"/>
       <c r="AA20" s="80"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="83"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="80"/>
       <c r="AE20" s="80"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="78"/>
-      <c r="AO20" s="80"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="77"/>
+      <c r="AQ20" s="79"/>
       <c r="AR20" s="80"/>
-      <c r="AS20" s="81"/>
-      <c r="AT20" s="81"/>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="81"/>
-      <c r="AW20" s="82"/>
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="80"/>
+      <c r="AV20" s="80"/>
+      <c r="AW20" s="80"/>
       <c r="AX20" s="80"/>
       <c r="AY20" s="81"/>
-      <c r="AZ20" s="81"/>
-      <c r="BA20" s="81"/>
-      <c r="BB20" s="81"/>
-      <c r="BC20" s="83"/>
+      <c r="AZ20" s="79"/>
+      <c r="BA20" s="80"/>
+      <c r="BB20" s="80"/>
+      <c r="BC20" s="80"/>
       <c r="BD20" s="80"/>
-      <c r="BE20" s="81"/>
-      <c r="BF20" s="83"/>
+      <c r="BE20" s="82"/>
+      <c r="BF20" s="79"/>
+      <c r="BG20" s="80"/>
+      <c r="BH20" s="82"/>
     </row>
-    <row r="21" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="52"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -5402,57 +6158,59 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="33"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="33"/>
+      <c r="T21" s="45"/>
       <c r="U21" s="47"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="44"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="45"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="44"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="32"/>
       <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
+      <c r="AT21" s="45"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="32"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="45"/>
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
-      <c r="BC21" s="33"/>
-      <c r="BD21" s="45"/>
-      <c r="BE21" s="32"/>
-      <c r="BF21" s="33"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="45"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="33"/>
     </row>
-    <row r="22" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="52"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -5462,57 +6220,59 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="33"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="33"/>
+      <c r="T22" s="45"/>
       <c r="U22" s="47"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="44"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="45"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="44"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="32"/>
       <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
+      <c r="AT22" s="45"/>
       <c r="AU22" s="32"/>
       <c r="AV22" s="32"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="32"/>
-      <c r="AZ22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="45"/>
       <c r="BA22" s="32"/>
       <c r="BB22" s="32"/>
-      <c r="BC22" s="33"/>
-      <c r="BD22" s="45"/>
-      <c r="BE22" s="32"/>
-      <c r="BF22" s="33"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="33"/>
     </row>
-    <row r="23" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="52"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -5522,57 +6282,59 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="33"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="33"/>
+      <c r="T23" s="45"/>
       <c r="U23" s="47"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="44"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="45"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="44"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="32"/>
       <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
+      <c r="AT23" s="45"/>
       <c r="AU23" s="32"/>
       <c r="AV23" s="32"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="45"/>
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
-      <c r="BC23" s="33"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="33"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="33"/>
     </row>
-    <row r="24" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="52"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -5582,57 +6344,59 @@
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="33"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="33"/>
+      <c r="T24" s="45"/>
       <c r="U24" s="47"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="44"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="45"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="44"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="32"/>
       <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
+      <c r="AT24" s="45"/>
       <c r="AU24" s="32"/>
       <c r="AV24" s="32"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="45"/>
       <c r="BA24" s="32"/>
       <c r="BB24" s="32"/>
-      <c r="BC24" s="33"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="32"/>
-      <c r="BF24" s="33"/>
+      <c r="BC24" s="32"/>
+      <c r="BD24" s="32"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="32"/>
+      <c r="BH24" s="33"/>
     </row>
-    <row r="25" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="52"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -5642,57 +6406,59 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="33"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="33"/>
+      <c r="T25" s="45"/>
       <c r="U25" s="47"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="44"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="45"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="44"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="32"/>
       <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
+      <c r="AT25" s="45"/>
       <c r="AU25" s="32"/>
       <c r="AV25" s="32"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="32"/>
-      <c r="AZ25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="45"/>
       <c r="BA25" s="32"/>
       <c r="BB25" s="32"/>
-      <c r="BC25" s="33"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="32"/>
-      <c r="BF25" s="33"/>
+      <c r="BC25" s="32"/>
+      <c r="BD25" s="32"/>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="32"/>
+      <c r="BH25" s="33"/>
     </row>
-    <row r="26" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="52"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -5702,57 +6468,59 @@
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="33"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="33"/>
+      <c r="T26" s="45"/>
       <c r="U26" s="47"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="44"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="45"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="44"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="32"/>
       <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
+      <c r="AT26" s="45"/>
       <c r="AU26" s="32"/>
       <c r="AV26" s="32"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="45"/>
       <c r="BA26" s="32"/>
       <c r="BB26" s="32"/>
-      <c r="BC26" s="33"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="32"/>
-      <c r="BF26" s="33"/>
+      <c r="BC26" s="32"/>
+      <c r="BD26" s="32"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="32"/>
+      <c r="BH26" s="33"/>
     </row>
-    <row r="27" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="52"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -5762,57 +6530,59 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="33"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="33"/>
+      <c r="T27" s="45"/>
       <c r="U27" s="47"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="44"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="45"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="44"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="32"/>
       <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
+      <c r="AT27" s="45"/>
       <c r="AU27" s="32"/>
       <c r="AV27" s="32"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="45"/>
       <c r="BA27" s="32"/>
       <c r="BB27" s="32"/>
-      <c r="BC27" s="33"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="33"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="33"/>
     </row>
-    <row r="28" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="52"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -5822,57 +6592,59 @@
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="33"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="33"/>
+      <c r="T28" s="45"/>
       <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="44"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="45"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="44"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="32"/>
       <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
+      <c r="AT28" s="45"/>
       <c r="AU28" s="32"/>
       <c r="AV28" s="32"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="45"/>
       <c r="BA28" s="32"/>
       <c r="BB28" s="32"/>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="33"/>
+      <c r="BC28" s="32"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="45"/>
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="33"/>
     </row>
-    <row r="29" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="52"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5882,57 +6654,59 @@
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="33"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="33"/>
+      <c r="T29" s="45"/>
       <c r="U29" s="47"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="44"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="45"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="44"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="32"/>
       <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
+      <c r="AT29" s="45"/>
       <c r="AU29" s="32"/>
       <c r="AV29" s="32"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="45"/>
       <c r="BA29" s="32"/>
       <c r="BB29" s="32"/>
-      <c r="BC29" s="33"/>
-      <c r="BD29" s="45"/>
-      <c r="BE29" s="32"/>
-      <c r="BF29" s="33"/>
+      <c r="BC29" s="32"/>
+      <c r="BD29" s="32"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="45"/>
+      <c r="BG29" s="32"/>
+      <c r="BH29" s="33"/>
     </row>
-    <row r="30" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="52"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -5942,57 +6716,59 @@
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="33"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="33"/>
+      <c r="T30" s="45"/>
       <c r="U30" s="47"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="44"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="45"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="44"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="32"/>
       <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
+      <c r="AT30" s="45"/>
       <c r="AU30" s="32"/>
       <c r="AV30" s="32"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="45"/>
       <c r="BA30" s="32"/>
       <c r="BB30" s="32"/>
-      <c r="BC30" s="33"/>
-      <c r="BD30" s="45"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="33"/>
+      <c r="BC30" s="32"/>
+      <c r="BD30" s="32"/>
+      <c r="BE30" s="33"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="32"/>
+      <c r="BH30" s="33"/>
     </row>
-    <row r="31" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="52"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -6002,57 +6778,59 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="33"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="33"/>
+      <c r="T31" s="45"/>
       <c r="U31" s="47"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="44"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="45"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="44"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="32"/>
       <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
+      <c r="AT31" s="45"/>
       <c r="AU31" s="32"/>
       <c r="AV31" s="32"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="32"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="32"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="45"/>
       <c r="BA31" s="32"/>
       <c r="BB31" s="32"/>
-      <c r="BC31" s="33"/>
-      <c r="BD31" s="45"/>
-      <c r="BE31" s="32"/>
-      <c r="BF31" s="33"/>
+      <c r="BC31" s="32"/>
+      <c r="BD31" s="32"/>
+      <c r="BE31" s="33"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="32"/>
+      <c r="BH31" s="33"/>
     </row>
-    <row r="32" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="52"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -6062,57 +6840,59 @@
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="33"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="33"/>
+      <c r="T32" s="45"/>
       <c r="U32" s="47"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="44"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="45"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="44"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="32"/>
       <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
+      <c r="AT32" s="45"/>
       <c r="AU32" s="32"/>
       <c r="AV32" s="32"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="32"/>
-      <c r="AZ32" s="32"/>
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="32"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="45"/>
       <c r="BA32" s="32"/>
       <c r="BB32" s="32"/>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="45"/>
-      <c r="BE32" s="32"/>
-      <c r="BF32" s="33"/>
+      <c r="BC32" s="32"/>
+      <c r="BD32" s="32"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="32"/>
+      <c r="BH32" s="33"/>
     </row>
-    <row r="33" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="52"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -6122,57 +6902,59 @@
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="33"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="33"/>
+      <c r="T33" s="45"/>
       <c r="U33" s="47"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="44"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="45"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="44"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="32"/>
       <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
+      <c r="AT33" s="45"/>
       <c r="AU33" s="32"/>
       <c r="AV33" s="32"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="32"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="32"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="45"/>
       <c r="BA33" s="32"/>
       <c r="BB33" s="32"/>
-      <c r="BC33" s="33"/>
-      <c r="BD33" s="45"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="33"/>
+      <c r="BC33" s="32"/>
+      <c r="BD33" s="32"/>
+      <c r="BE33" s="33"/>
+      <c r="BF33" s="45"/>
+      <c r="BG33" s="32"/>
+      <c r="BH33" s="33"/>
     </row>
-    <row r="34" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="52"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -6182,57 +6964,59 @@
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="33"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="33"/>
+      <c r="T34" s="45"/>
       <c r="U34" s="47"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="44"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="45"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="44"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="32"/>
       <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
+      <c r="AT34" s="45"/>
       <c r="AU34" s="32"/>
       <c r="AV34" s="32"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="45"/>
       <c r="BA34" s="32"/>
       <c r="BB34" s="32"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="45"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="33"/>
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="33"/>
+      <c r="BF34" s="45"/>
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="33"/>
     </row>
-    <row r="35" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="52"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -6242,57 +7026,59 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="33"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="33"/>
+      <c r="T35" s="45"/>
       <c r="U35" s="47"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="47"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="44"/>
-      <c r="AO35" s="45"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="45"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="44"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="32"/>
       <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
+      <c r="AT35" s="45"/>
       <c r="AU35" s="32"/>
       <c r="AV35" s="32"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="32"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="32"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="45"/>
       <c r="BA35" s="32"/>
       <c r="BB35" s="32"/>
-      <c r="BC35" s="33"/>
-      <c r="BD35" s="45"/>
-      <c r="BE35" s="32"/>
-      <c r="BF35" s="33"/>
+      <c r="BC35" s="32"/>
+      <c r="BD35" s="32"/>
+      <c r="BE35" s="33"/>
+      <c r="BF35" s="45"/>
+      <c r="BG35" s="32"/>
+      <c r="BH35" s="33"/>
     </row>
-    <row r="36" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="52"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -6302,57 +7088,59 @@
       <c r="L36" s="32"/>
       <c r="M36" s="32"/>
       <c r="N36" s="32"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="33"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="33"/>
+      <c r="T36" s="45"/>
       <c r="U36" s="47"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="44"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="45"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="44"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="32"/>
       <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
+      <c r="AT36" s="45"/>
       <c r="AU36" s="32"/>
       <c r="AV36" s="32"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="32"/>
+      <c r="AW36" s="32"/>
+      <c r="AX36" s="32"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="45"/>
       <c r="BA36" s="32"/>
       <c r="BB36" s="32"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="45"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="33"/>
+      <c r="BC36" s="32"/>
+      <c r="BD36" s="32"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="45"/>
+      <c r="BG36" s="32"/>
+      <c r="BH36" s="33"/>
     </row>
-    <row r="37" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="52"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -6362,57 +7150,59 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="33"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="33"/>
+      <c r="T37" s="45"/>
       <c r="U37" s="47"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="44"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="45"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="44"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="32"/>
       <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
+      <c r="AT37" s="45"/>
       <c r="AU37" s="32"/>
       <c r="AV37" s="32"/>
-      <c r="AW37" s="49"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="32"/>
-      <c r="AZ37" s="32"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="32"/>
+      <c r="AY37" s="49"/>
+      <c r="AZ37" s="45"/>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
-      <c r="BC37" s="33"/>
-      <c r="BD37" s="45"/>
-      <c r="BE37" s="32"/>
-      <c r="BF37" s="33"/>
+      <c r="BC37" s="32"/>
+      <c r="BD37" s="32"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="32"/>
+      <c r="BH37" s="33"/>
     </row>
-    <row r="38" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="52"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6422,57 +7212,59 @@
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="33"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="33"/>
+      <c r="T38" s="45"/>
       <c r="U38" s="47"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="49"/>
-      <c r="AM38" s="44"/>
-      <c r="AO38" s="45"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="45"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="44"/>
+      <c r="AQ38" s="45"/>
+      <c r="AR38" s="32"/>
       <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
+      <c r="AT38" s="45"/>
       <c r="AU38" s="32"/>
       <c r="AV38" s="32"/>
-      <c r="AW38" s="49"/>
-      <c r="AX38" s="45"/>
-      <c r="AY38" s="32"/>
-      <c r="AZ38" s="32"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="32"/>
+      <c r="AY38" s="49"/>
+      <c r="AZ38" s="45"/>
       <c r="BA38" s="32"/>
       <c r="BB38" s="32"/>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="45"/>
-      <c r="BE38" s="32"/>
-      <c r="BF38" s="33"/>
+      <c r="BC38" s="32"/>
+      <c r="BD38" s="32"/>
+      <c r="BE38" s="33"/>
+      <c r="BF38" s="45"/>
+      <c r="BG38" s="32"/>
+      <c r="BH38" s="33"/>
     </row>
-    <row r="39" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="52"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -6482,57 +7274,59 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="33"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="33"/>
+      <c r="T39" s="45"/>
       <c r="U39" s="47"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="49"/>
-      <c r="AM39" s="44"/>
-      <c r="AO39" s="45"/>
-      <c r="AP39" s="32"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="45"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="44"/>
+      <c r="AQ39" s="45"/>
+      <c r="AR39" s="32"/>
       <c r="AS39" s="32"/>
-      <c r="AT39" s="32"/>
+      <c r="AT39" s="45"/>
       <c r="AU39" s="32"/>
       <c r="AV39" s="32"/>
-      <c r="AW39" s="49"/>
-      <c r="AX39" s="45"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="32"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="32"/>
+      <c r="AY39" s="49"/>
+      <c r="AZ39" s="45"/>
       <c r="BA39" s="32"/>
       <c r="BB39" s="32"/>
-      <c r="BC39" s="33"/>
-      <c r="BD39" s="45"/>
-      <c r="BE39" s="32"/>
-      <c r="BF39" s="33"/>
+      <c r="BC39" s="32"/>
+      <c r="BD39" s="32"/>
+      <c r="BE39" s="33"/>
+      <c r="BF39" s="45"/>
+      <c r="BG39" s="32"/>
+      <c r="BH39" s="33"/>
     </row>
-    <row r="40" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="52"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6542,57 +7336,59 @@
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="33"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="33"/>
+      <c r="T40" s="45"/>
       <c r="U40" s="47"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="49"/>
-      <c r="AM40" s="44"/>
-      <c r="AO40" s="45"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="45"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="44"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="32"/>
       <c r="AS40" s="32"/>
-      <c r="AT40" s="32"/>
+      <c r="AT40" s="45"/>
       <c r="AU40" s="32"/>
       <c r="AV40" s="32"/>
-      <c r="AW40" s="49"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="49"/>
+      <c r="AZ40" s="45"/>
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
-      <c r="BC40" s="33"/>
-      <c r="BD40" s="45"/>
-      <c r="BE40" s="32"/>
-      <c r="BF40" s="33"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40" s="33"/>
+      <c r="BF40" s="45"/>
+      <c r="BG40" s="32"/>
+      <c r="BH40" s="33"/>
     </row>
-    <row r="41" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="52"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -6602,55 +7398,57 @@
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="33"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="33"/>
+      <c r="T41" s="45"/>
       <c r="U41" s="47"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="49"/>
-      <c r="AM41" s="44"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="45"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="49"/>
+      <c r="AO41" s="44"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="32"/>
       <c r="AS41" s="32"/>
-      <c r="AT41" s="32"/>
+      <c r="AT41" s="45"/>
       <c r="AU41" s="32"/>
       <c r="AV41" s="32"/>
-      <c r="AW41" s="49"/>
-      <c r="AX41" s="45"/>
-      <c r="AY41" s="32"/>
-      <c r="AZ41" s="32"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="32"/>
+      <c r="AY41" s="49"/>
+      <c r="AZ41" s="45"/>
       <c r="BA41" s="32"/>
       <c r="BB41" s="32"/>
-      <c r="BC41" s="33"/>
-      <c r="BD41" s="45"/>
-      <c r="BE41" s="32"/>
-      <c r="BF41" s="33"/>
+      <c r="BC41" s="32"/>
+      <c r="BD41" s="32"/>
+      <c r="BE41" s="33"/>
+      <c r="BF41" s="45"/>
+      <c r="BG41" s="32"/>
+      <c r="BH41" s="33"/>
     </row>
-    <row r="42" spans="1:58" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="44"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -6660,185 +7458,220 @@
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="33"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="33"/>
+      <c r="T42" s="45"/>
       <c r="U42" s="47"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="32"/>
-      <c r="AL42" s="49"/>
-      <c r="AM42" s="44"/>
-      <c r="AO42" s="45"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="45"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="47"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="44"/>
+      <c r="AQ42" s="45"/>
+      <c r="AR42" s="32"/>
       <c r="AS42" s="32"/>
-      <c r="AT42" s="32"/>
+      <c r="AT42" s="45"/>
       <c r="AU42" s="32"/>
       <c r="AV42" s="32"/>
-      <c r="AW42" s="49"/>
-      <c r="AX42" s="45"/>
-      <c r="AY42" s="32"/>
-      <c r="AZ42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="49"/>
+      <c r="AZ42" s="45"/>
       <c r="BA42" s="32"/>
       <c r="BB42" s="32"/>
-      <c r="BC42" s="33"/>
-      <c r="BD42" s="45"/>
-      <c r="BE42" s="32"/>
-      <c r="BF42" s="33"/>
+      <c r="BC42" s="32"/>
+      <c r="BD42" s="32"/>
+      <c r="BE42" s="33"/>
+      <c r="BF42" s="45"/>
+      <c r="BG42" s="32"/>
+      <c r="BH42" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1" xr:uid="{A8FE4728-8055-44C5-BA05-397CC18DBE67}"/>
-    <hyperlink ref="AC3" r:id="rId2" xr:uid="{10ECDF49-0229-4964-8A8A-9577184EAAF9}"/>
-    <hyperlink ref="AG3" r:id="rId3" xr:uid="{6208AD9D-8B6A-437D-87A8-BA81D5A1E0B5}"/>
-    <hyperlink ref="AK3" r:id="rId4" xr:uid="{62E8B516-E878-45E4-AEA3-3A34410D99E4}"/>
-    <hyperlink ref="AM3" r:id="rId5" xr:uid="{67C28544-75AA-41A8-989E-A4B093CB0C99}"/>
-    <hyperlink ref="M3" r:id="rId6" xr:uid="{1D2E31B1-0486-4B22-B4FD-DC0A40CABF08}"/>
+    <hyperlink ref="AA3" r:id="rId1" xr:uid="{A8FE4728-8055-44C5-BA05-397CC18DBE67}"/>
+    <hyperlink ref="AE3" r:id="rId2" xr:uid="{10ECDF49-0229-4964-8A8A-9577184EAAF9}"/>
+    <hyperlink ref="AI3" r:id="rId3" xr:uid="{6208AD9D-8B6A-437D-87A8-BA81D5A1E0B5}"/>
+    <hyperlink ref="AM3" r:id="rId4" xr:uid="{62E8B516-E878-45E4-AEA3-3A34410D99E4}"/>
+    <hyperlink ref="AO3" r:id="rId5" xr:uid="{67C28544-75AA-41A8-989E-A4B093CB0C99}"/>
+    <hyperlink ref="O3" r:id="rId6" xr:uid="{1D2E31B1-0486-4B22-B4FD-DC0A40CABF08}"/>
     <hyperlink ref="B3" r:id="rId7" xr:uid="{95B9623E-AD13-4CA3-8783-10C44B62BBFD}"/>
-    <hyperlink ref="AO3" r:id="rId8" xr:uid="{E70743F8-5DF8-4CA1-A974-04DDA4FF2EFC}"/>
-    <hyperlink ref="AP3" r:id="rId9" xr:uid="{CB211FBC-699F-4BCD-9733-F7F4CCF97420}"/>
-    <hyperlink ref="AQ3" r:id="rId10" xr:uid="{F8F85358-3E3C-457B-AB53-2D58B1777875}"/>
+    <hyperlink ref="AQ3" r:id="rId8" xr:uid="{E70743F8-5DF8-4CA1-A974-04DDA4FF2EFC}"/>
+    <hyperlink ref="AR3" r:id="rId9" xr:uid="{CB211FBC-699F-4BCD-9733-F7F4CCF97420}"/>
+    <hyperlink ref="AS3" r:id="rId10" xr:uid="{F8F85358-3E3C-457B-AB53-2D58B1777875}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{C9A33601-4BF9-48A0-A9D8-14C47912B059}"/>
-    <hyperlink ref="M9" r:id="rId12" xr:uid="{816CB25F-1E2F-4BEB-B6E2-4DCAB5304EC3}"/>
-    <hyperlink ref="P9" r:id="rId13" xr:uid="{DAF7C4E1-74EA-4B8A-AE30-7A235A5C842C}"/>
-    <hyperlink ref="P3" r:id="rId14" xr:uid="{214EA292-6542-4457-9F81-3EFD48BE93FE}"/>
-    <hyperlink ref="AM9" r:id="rId15" xr:uid="{4743DC2F-F508-4D8F-BA50-3A8A109C10A5}"/>
-    <hyperlink ref="AK9" r:id="rId16" xr:uid="{7682A83D-2A97-4081-8938-E775DB5741EA}"/>
-    <hyperlink ref="AG9" r:id="rId17" xr:uid="{78339679-C901-499E-8B34-44226B23221C}"/>
-    <hyperlink ref="AC9" r:id="rId18" xr:uid="{280FB163-0D36-4E34-866A-0DEC85C32321}"/>
-    <hyperlink ref="Y9" r:id="rId19" xr:uid="{396A8770-23FA-4488-8DF5-406617F6AA01}"/>
-    <hyperlink ref="AO9" r:id="rId20" xr:uid="{AE014FAF-D2F5-4E42-B43D-5E5CA7CD9C24}"/>
-    <hyperlink ref="AP9" r:id="rId21" xr:uid="{C836142F-AFC6-48AB-9923-9E44F2129AB6}"/>
-    <hyperlink ref="AQ9" r:id="rId22" xr:uid="{8C2559E4-33CE-4AD9-B3C3-CBBC8A302D79}"/>
-    <hyperlink ref="AQ10" r:id="rId23" xr:uid="{2AA304FC-D1C1-495A-A13A-949D3D095D66}"/>
-    <hyperlink ref="AP10" r:id="rId24" xr:uid="{25CFDB9D-06E5-4E7A-96F4-F059E786A87E}"/>
-    <hyperlink ref="AO10" r:id="rId25" xr:uid="{C90525B3-7EAE-4BAB-9E09-08A9F402DC55}"/>
-    <hyperlink ref="AM10" r:id="rId26" xr:uid="{8A9F658E-CD5F-43AC-BEAC-D69C308B40E5}"/>
-    <hyperlink ref="AK10" r:id="rId27" xr:uid="{C983B288-3665-45E9-B8BF-8A9782473DB0}"/>
-    <hyperlink ref="AG10" r:id="rId28" xr:uid="{B6EC871D-084D-4377-9455-4F00F33587FF}"/>
-    <hyperlink ref="AC10" r:id="rId29" xr:uid="{920DCABA-50F2-4BD2-933C-3C109F568BD0}"/>
-    <hyperlink ref="Y10" r:id="rId30" xr:uid="{6316EDCB-1422-4645-A74A-EC49164FB766}"/>
-    <hyperlink ref="P10" r:id="rId31" xr:uid="{2C32D835-DB4B-4B86-9C6C-F166E4BA64B7}"/>
-    <hyperlink ref="M10" r:id="rId32" xr:uid="{E482ACB2-C89B-42F2-BE43-9CB5EE52DAC6}"/>
+    <hyperlink ref="O9" r:id="rId12" xr:uid="{816CB25F-1E2F-4BEB-B6E2-4DCAB5304EC3}"/>
+    <hyperlink ref="R9" r:id="rId13" xr:uid="{DAF7C4E1-74EA-4B8A-AE30-7A235A5C842C}"/>
+    <hyperlink ref="R3" r:id="rId14" xr:uid="{214EA292-6542-4457-9F81-3EFD48BE93FE}"/>
+    <hyperlink ref="AO9" r:id="rId15" xr:uid="{4743DC2F-F508-4D8F-BA50-3A8A109C10A5}"/>
+    <hyperlink ref="AM9" r:id="rId16" xr:uid="{7682A83D-2A97-4081-8938-E775DB5741EA}"/>
+    <hyperlink ref="AI9" r:id="rId17" xr:uid="{78339679-C901-499E-8B34-44226B23221C}"/>
+    <hyperlink ref="AE9" r:id="rId18" xr:uid="{280FB163-0D36-4E34-866A-0DEC85C32321}"/>
+    <hyperlink ref="AA9" r:id="rId19" xr:uid="{396A8770-23FA-4488-8DF5-406617F6AA01}"/>
+    <hyperlink ref="AQ9" r:id="rId20" xr:uid="{AE014FAF-D2F5-4E42-B43D-5E5CA7CD9C24}"/>
+    <hyperlink ref="AR9" r:id="rId21" xr:uid="{C836142F-AFC6-48AB-9923-9E44F2129AB6}"/>
+    <hyperlink ref="AS9" r:id="rId22" xr:uid="{8C2559E4-33CE-4AD9-B3C3-CBBC8A302D79}"/>
+    <hyperlink ref="AS10" r:id="rId23" xr:uid="{2AA304FC-D1C1-495A-A13A-949D3D095D66}"/>
+    <hyperlink ref="AR10" r:id="rId24" xr:uid="{25CFDB9D-06E5-4E7A-96F4-F059E786A87E}"/>
+    <hyperlink ref="AQ10" r:id="rId25" xr:uid="{C90525B3-7EAE-4BAB-9E09-08A9F402DC55}"/>
+    <hyperlink ref="AO10" r:id="rId26" xr:uid="{8A9F658E-CD5F-43AC-BEAC-D69C308B40E5}"/>
+    <hyperlink ref="AM10" r:id="rId27" xr:uid="{C983B288-3665-45E9-B8BF-8A9782473DB0}"/>
+    <hyperlink ref="AI10" r:id="rId28" xr:uid="{B6EC871D-084D-4377-9455-4F00F33587FF}"/>
+    <hyperlink ref="AE10" r:id="rId29" xr:uid="{920DCABA-50F2-4BD2-933C-3C109F568BD0}"/>
+    <hyperlink ref="AA10" r:id="rId30" xr:uid="{6316EDCB-1422-4645-A74A-EC49164FB766}"/>
+    <hyperlink ref="R10" r:id="rId31" xr:uid="{2C32D835-DB4B-4B86-9C6C-F166E4BA64B7}"/>
+    <hyperlink ref="O10" r:id="rId32" xr:uid="{E482ACB2-C89B-42F2-BE43-9CB5EE52DAC6}"/>
     <hyperlink ref="B10" r:id="rId33" xr:uid="{ED505BEA-C375-48E2-B372-82FED1A92E43}"/>
-    <hyperlink ref="AQ11" r:id="rId34" xr:uid="{A247F8E9-46B3-4492-BF77-CA7EF6B0836B}"/>
-    <hyperlink ref="AP11" r:id="rId35" xr:uid="{56E0C3CB-9BCE-4054-A796-E10EBBD255E3}"/>
-    <hyperlink ref="AO11" r:id="rId36" xr:uid="{C864BABF-2C12-4D21-8AA6-B095D24A2439}"/>
-    <hyperlink ref="AM11" r:id="rId37" xr:uid="{7B08CEF5-6888-444B-B260-5BBFD8B48040}"/>
-    <hyperlink ref="AK11" r:id="rId38" xr:uid="{9D73EF68-3661-4DE8-ADB8-CE466C89CED6}"/>
-    <hyperlink ref="AG11" r:id="rId39" xr:uid="{B7EBE373-11EE-45B2-8C00-36FD3395FC09}"/>
-    <hyperlink ref="AC11" r:id="rId40" xr:uid="{86BC1618-5E4B-45D9-A63E-033F664D7618}"/>
-    <hyperlink ref="Y11" r:id="rId41" xr:uid="{1F5B657B-86C2-47D6-8FA9-48CA1017345D}"/>
-    <hyperlink ref="P11" r:id="rId42" xr:uid="{5223DB52-3A59-4D9B-92FE-E52FEA557C0D}"/>
-    <hyperlink ref="M11" r:id="rId43" xr:uid="{F64B2104-F20C-4315-BA83-9A20C60CC03A}"/>
+    <hyperlink ref="AS11" r:id="rId34" xr:uid="{A247F8E9-46B3-4492-BF77-CA7EF6B0836B}"/>
+    <hyperlink ref="AR11" r:id="rId35" xr:uid="{56E0C3CB-9BCE-4054-A796-E10EBBD255E3}"/>
+    <hyperlink ref="AQ11" r:id="rId36" xr:uid="{C864BABF-2C12-4D21-8AA6-B095D24A2439}"/>
+    <hyperlink ref="AO11" r:id="rId37" xr:uid="{7B08CEF5-6888-444B-B260-5BBFD8B48040}"/>
+    <hyperlink ref="AM11" r:id="rId38" xr:uid="{9D73EF68-3661-4DE8-ADB8-CE466C89CED6}"/>
+    <hyperlink ref="AI11" r:id="rId39" xr:uid="{B7EBE373-11EE-45B2-8C00-36FD3395FC09}"/>
+    <hyperlink ref="AE11" r:id="rId40" xr:uid="{86BC1618-5E4B-45D9-A63E-033F664D7618}"/>
+    <hyperlink ref="AA11" r:id="rId41" xr:uid="{1F5B657B-86C2-47D6-8FA9-48CA1017345D}"/>
+    <hyperlink ref="R11" r:id="rId42" xr:uid="{5223DB52-3A59-4D9B-92FE-E52FEA557C0D}"/>
+    <hyperlink ref="O11" r:id="rId43" xr:uid="{F64B2104-F20C-4315-BA83-9A20C60CC03A}"/>
     <hyperlink ref="B11" r:id="rId44" xr:uid="{C45FFA46-DAD0-49BA-9A45-01E829114D93}"/>
-    <hyperlink ref="AQ12" r:id="rId45" xr:uid="{FE0C39E4-6F25-473A-8D27-F60CCBB3489F}"/>
-    <hyperlink ref="AP12" r:id="rId46" xr:uid="{9B97025C-D714-41F7-80A6-C0D671F4F611}"/>
-    <hyperlink ref="AO12" r:id="rId47" xr:uid="{9FBAD9BD-0088-494C-A37C-601F5656A973}"/>
-    <hyperlink ref="AM12" r:id="rId48" xr:uid="{BB984601-D445-484E-ACA9-9B74E37EF319}"/>
-    <hyperlink ref="AK12" r:id="rId49" xr:uid="{7E3AF7C2-AA54-4670-833A-F2CBC06D90BE}"/>
-    <hyperlink ref="AG12" r:id="rId50" xr:uid="{5DAEAD35-DD8A-49AC-B740-36DCA90B8B8E}"/>
-    <hyperlink ref="AC12" r:id="rId51" xr:uid="{1181342B-21FF-43B1-A682-9DD695015D55}"/>
-    <hyperlink ref="Y12" r:id="rId52" xr:uid="{C813BD17-55BD-4DCC-963E-2835C9038462}"/>
-    <hyperlink ref="P12" r:id="rId53" xr:uid="{2EDD7DE6-8763-4607-8C9F-F9595748047C}"/>
-    <hyperlink ref="M12" r:id="rId54" xr:uid="{A8238885-A811-41C0-B149-51B07C215D09}"/>
+    <hyperlink ref="AS12" r:id="rId45" xr:uid="{FE0C39E4-6F25-473A-8D27-F60CCBB3489F}"/>
+    <hyperlink ref="AR12" r:id="rId46" xr:uid="{9B97025C-D714-41F7-80A6-C0D671F4F611}"/>
+    <hyperlink ref="AQ12" r:id="rId47" xr:uid="{9FBAD9BD-0088-494C-A37C-601F5656A973}"/>
+    <hyperlink ref="AO12" r:id="rId48" xr:uid="{BB984601-D445-484E-ACA9-9B74E37EF319}"/>
+    <hyperlink ref="AM12" r:id="rId49" xr:uid="{7E3AF7C2-AA54-4670-833A-F2CBC06D90BE}"/>
+    <hyperlink ref="AI12" r:id="rId50" xr:uid="{5DAEAD35-DD8A-49AC-B740-36DCA90B8B8E}"/>
+    <hyperlink ref="AE12" r:id="rId51" xr:uid="{1181342B-21FF-43B1-A682-9DD695015D55}"/>
+    <hyperlink ref="AA12" r:id="rId52" xr:uid="{C813BD17-55BD-4DCC-963E-2835C9038462}"/>
+    <hyperlink ref="R12" r:id="rId53" xr:uid="{2EDD7DE6-8763-4607-8C9F-F9595748047C}"/>
+    <hyperlink ref="O12" r:id="rId54" xr:uid="{A8238885-A811-41C0-B149-51B07C215D09}"/>
     <hyperlink ref="B12" r:id="rId55" xr:uid="{1FCFA72F-6565-465E-AF51-58FACE50888C}"/>
-    <hyperlink ref="AQ13" r:id="rId56" xr:uid="{1DFB74FD-E3AC-4DE0-A95C-49742453F5AE}"/>
-    <hyperlink ref="AP13" r:id="rId57" xr:uid="{68A256FC-8362-4995-997F-2E74F01B6BCC}"/>
-    <hyperlink ref="AO13" r:id="rId58" xr:uid="{8E6DDF19-C9CC-4BCA-9A9E-07F254C7FB30}"/>
-    <hyperlink ref="AM13" r:id="rId59" xr:uid="{CDF7C573-1921-43E3-B8B5-20F955E745A2}"/>
-    <hyperlink ref="AK13" r:id="rId60" xr:uid="{3EB8D1B1-6A40-4FD2-BC9D-6F73885F480A}"/>
-    <hyperlink ref="AG13" r:id="rId61" xr:uid="{3AAEDF9A-5F80-453D-AC5A-1FB790D366C0}"/>
-    <hyperlink ref="AC13" r:id="rId62" xr:uid="{20C9E6E6-B97E-4E6C-8FF3-308A3B78B728}"/>
-    <hyperlink ref="Y13" r:id="rId63" xr:uid="{467BA7EE-E36C-4FAD-B388-E58E428C51BA}"/>
-    <hyperlink ref="P13" r:id="rId64" xr:uid="{2632CABE-EF89-43E0-803C-3C47E9C36616}"/>
-    <hyperlink ref="M13" r:id="rId65" xr:uid="{70811A32-A998-4B3E-A3B7-E43E747D962B}"/>
+    <hyperlink ref="AS13" r:id="rId56" xr:uid="{1DFB74FD-E3AC-4DE0-A95C-49742453F5AE}"/>
+    <hyperlink ref="AR13" r:id="rId57" xr:uid="{68A256FC-8362-4995-997F-2E74F01B6BCC}"/>
+    <hyperlink ref="AQ13" r:id="rId58" xr:uid="{8E6DDF19-C9CC-4BCA-9A9E-07F254C7FB30}"/>
+    <hyperlink ref="AO13" r:id="rId59" xr:uid="{CDF7C573-1921-43E3-B8B5-20F955E745A2}"/>
+    <hyperlink ref="AM13" r:id="rId60" xr:uid="{3EB8D1B1-6A40-4FD2-BC9D-6F73885F480A}"/>
+    <hyperlink ref="AI13" r:id="rId61" xr:uid="{3AAEDF9A-5F80-453D-AC5A-1FB790D366C0}"/>
+    <hyperlink ref="AE13" r:id="rId62" xr:uid="{20C9E6E6-B97E-4E6C-8FF3-308A3B78B728}"/>
+    <hyperlink ref="AA13" r:id="rId63" xr:uid="{467BA7EE-E36C-4FAD-B388-E58E428C51BA}"/>
+    <hyperlink ref="R13" r:id="rId64" xr:uid="{2632CABE-EF89-43E0-803C-3C47E9C36616}"/>
+    <hyperlink ref="O13" r:id="rId65" xr:uid="{70811A32-A998-4B3E-A3B7-E43E747D962B}"/>
     <hyperlink ref="B13" r:id="rId66" xr:uid="{6830DADE-076B-48F0-94D6-BA8DE57C0DE3}"/>
-    <hyperlink ref="AQ14" r:id="rId67" xr:uid="{6633E395-16F9-482E-95C5-6BBB92FC853D}"/>
-    <hyperlink ref="AP14" r:id="rId68" xr:uid="{8A4EA95D-BCB0-4CC5-B746-D02EE5960A62}"/>
-    <hyperlink ref="AO14" r:id="rId69" xr:uid="{81F6C481-A1C0-4503-B983-AE3A133CF599}"/>
-    <hyperlink ref="AM14" r:id="rId70" xr:uid="{74B728D1-2265-4EBF-9A8D-74292FDBAB18}"/>
-    <hyperlink ref="AK14" r:id="rId71" xr:uid="{FF82119E-AA06-4EB3-8ABE-F7B227138662}"/>
-    <hyperlink ref="AG14" r:id="rId72" xr:uid="{37AA0298-A688-4245-9DC4-29BAA04109F5}"/>
-    <hyperlink ref="AC14" r:id="rId73" xr:uid="{E21CD65F-03BC-440E-9D07-3153F6F72872}"/>
-    <hyperlink ref="Y14" r:id="rId74" xr:uid="{20B5C1AB-B2F2-42A9-AE54-3ABAC6438DCB}"/>
-    <hyperlink ref="P14" r:id="rId75" xr:uid="{2818B24B-A0BB-46E8-A8B7-30080245B8BB}"/>
-    <hyperlink ref="M14" r:id="rId76" xr:uid="{B0314F68-106C-451D-80F1-5B9D460BE11E}"/>
+    <hyperlink ref="AS14" r:id="rId67" xr:uid="{6633E395-16F9-482E-95C5-6BBB92FC853D}"/>
+    <hyperlink ref="AR14" r:id="rId68" xr:uid="{8A4EA95D-BCB0-4CC5-B746-D02EE5960A62}"/>
+    <hyperlink ref="AQ14" r:id="rId69" xr:uid="{81F6C481-A1C0-4503-B983-AE3A133CF599}"/>
+    <hyperlink ref="AO14" r:id="rId70" xr:uid="{74B728D1-2265-4EBF-9A8D-74292FDBAB18}"/>
+    <hyperlink ref="AM14" r:id="rId71" xr:uid="{FF82119E-AA06-4EB3-8ABE-F7B227138662}"/>
+    <hyperlink ref="AI14" r:id="rId72" xr:uid="{37AA0298-A688-4245-9DC4-29BAA04109F5}"/>
+    <hyperlink ref="AE14" r:id="rId73" xr:uid="{E21CD65F-03BC-440E-9D07-3153F6F72872}"/>
+    <hyperlink ref="AA14" r:id="rId74" xr:uid="{20B5C1AB-B2F2-42A9-AE54-3ABAC6438DCB}"/>
+    <hyperlink ref="R14" r:id="rId75" xr:uid="{2818B24B-A0BB-46E8-A8B7-30080245B8BB}"/>
+    <hyperlink ref="O14" r:id="rId76" xr:uid="{B0314F68-106C-451D-80F1-5B9D460BE11E}"/>
     <hyperlink ref="B14" r:id="rId77" xr:uid="{0032E0C5-7B01-47C3-9643-CE7D3F66DA20}"/>
-    <hyperlink ref="AQ15" r:id="rId78" xr:uid="{8509E1A0-A6EA-4BB9-98AC-C722E298A8B8}"/>
-    <hyperlink ref="AP15" r:id="rId79" xr:uid="{6831A1C2-947E-40BA-A9CB-D3DAD53A2F8B}"/>
-    <hyperlink ref="AO15" r:id="rId80" xr:uid="{DFC13DF0-18E4-4472-A8DC-B18DA3A9692E}"/>
-    <hyperlink ref="AM15" r:id="rId81" xr:uid="{FABD99CD-C7F4-4B5A-A2C7-32C15242EAD7}"/>
-    <hyperlink ref="AK15" r:id="rId82" xr:uid="{A01AC8CD-CA48-4385-A889-C0F19D60901C}"/>
-    <hyperlink ref="AG15" r:id="rId83" xr:uid="{051B0167-A7ED-4C73-93CB-22354232D24D}"/>
-    <hyperlink ref="AC15" r:id="rId84" xr:uid="{EC35E632-1C40-4909-8133-B35FEA995119}"/>
-    <hyperlink ref="Y15" r:id="rId85" xr:uid="{84413052-E158-4165-BBB4-FD4E5DF62AF2}"/>
-    <hyperlink ref="P15" r:id="rId86" xr:uid="{1E91EAAA-67D2-48C7-ADC8-301D75998E63}"/>
-    <hyperlink ref="M15" r:id="rId87" xr:uid="{92D8D1C9-61C8-4276-8486-D0D99C4095A8}"/>
+    <hyperlink ref="AS15" r:id="rId78" xr:uid="{8509E1A0-A6EA-4BB9-98AC-C722E298A8B8}"/>
+    <hyperlink ref="AR15" r:id="rId79" xr:uid="{6831A1C2-947E-40BA-A9CB-D3DAD53A2F8B}"/>
+    <hyperlink ref="AQ15" r:id="rId80" xr:uid="{DFC13DF0-18E4-4472-A8DC-B18DA3A9692E}"/>
+    <hyperlink ref="AO15" r:id="rId81" xr:uid="{FABD99CD-C7F4-4B5A-A2C7-32C15242EAD7}"/>
+    <hyperlink ref="AM15" r:id="rId82" xr:uid="{A01AC8CD-CA48-4385-A889-C0F19D60901C}"/>
+    <hyperlink ref="AI15" r:id="rId83" xr:uid="{051B0167-A7ED-4C73-93CB-22354232D24D}"/>
+    <hyperlink ref="AE15" r:id="rId84" xr:uid="{EC35E632-1C40-4909-8133-B35FEA995119}"/>
+    <hyperlink ref="AA15" r:id="rId85" xr:uid="{84413052-E158-4165-BBB4-FD4E5DF62AF2}"/>
+    <hyperlink ref="R15" r:id="rId86" xr:uid="{1E91EAAA-67D2-48C7-ADC8-301D75998E63}"/>
+    <hyperlink ref="O15" r:id="rId87" xr:uid="{92D8D1C9-61C8-4276-8486-D0D99C4095A8}"/>
     <hyperlink ref="B15" r:id="rId88" xr:uid="{EBFE89C6-A9C5-493A-8A89-B591145A909B}"/>
-    <hyperlink ref="AQ16" r:id="rId89" xr:uid="{C5586695-E029-4516-B879-3EA58F7DED80}"/>
-    <hyperlink ref="AP16" r:id="rId90" xr:uid="{FA9A8EBD-F8B7-4695-81F9-936636CD5015}"/>
-    <hyperlink ref="AO16" r:id="rId91" xr:uid="{A1BF1933-0AAE-4805-A0A1-773EA9AABE98}"/>
-    <hyperlink ref="AM16" r:id="rId92" xr:uid="{CBE6BFC3-F73F-4F1B-B870-0C883A51A654}"/>
-    <hyperlink ref="AK16" r:id="rId93" xr:uid="{6CB59B7B-0A5F-4B6B-B2D1-55F84EE5F574}"/>
-    <hyperlink ref="AG16" r:id="rId94" xr:uid="{4202B3C0-D40B-493F-BF07-5FF9CC1F70F2}"/>
-    <hyperlink ref="AC16" r:id="rId95" xr:uid="{4EE1A58D-49A3-4753-803B-6C06A39CD6D3}"/>
-    <hyperlink ref="Y16" r:id="rId96" xr:uid="{7B3CD230-D5F8-462D-8496-084A2C801DE3}"/>
-    <hyperlink ref="P16" r:id="rId97" xr:uid="{B7B494BC-5231-426D-9C70-AA492D133E31}"/>
-    <hyperlink ref="M16" r:id="rId98" xr:uid="{9FD142CB-310A-4880-A1C1-D1D782960F43}"/>
+    <hyperlink ref="AS16" r:id="rId89" xr:uid="{C5586695-E029-4516-B879-3EA58F7DED80}"/>
+    <hyperlink ref="AR16" r:id="rId90" xr:uid="{FA9A8EBD-F8B7-4695-81F9-936636CD5015}"/>
+    <hyperlink ref="AQ16" r:id="rId91" xr:uid="{A1BF1933-0AAE-4805-A0A1-773EA9AABE98}"/>
+    <hyperlink ref="AO16" r:id="rId92" xr:uid="{CBE6BFC3-F73F-4F1B-B870-0C883A51A654}"/>
+    <hyperlink ref="AM16" r:id="rId93" xr:uid="{6CB59B7B-0A5F-4B6B-B2D1-55F84EE5F574}"/>
+    <hyperlink ref="AI16" r:id="rId94" xr:uid="{4202B3C0-D40B-493F-BF07-5FF9CC1F70F2}"/>
+    <hyperlink ref="AE16" r:id="rId95" xr:uid="{4EE1A58D-49A3-4753-803B-6C06A39CD6D3}"/>
+    <hyperlink ref="AA16" r:id="rId96" xr:uid="{7B3CD230-D5F8-462D-8496-084A2C801DE3}"/>
+    <hyperlink ref="R16" r:id="rId97" xr:uid="{B7B494BC-5231-426D-9C70-AA492D133E31}"/>
+    <hyperlink ref="O16" r:id="rId98" xr:uid="{9FD142CB-310A-4880-A1C1-D1D782960F43}"/>
     <hyperlink ref="B16" r:id="rId99" xr:uid="{A5FE75FC-7EEE-4709-A26E-807BA2DAD1CA}"/>
-    <hyperlink ref="AQ17" r:id="rId100" xr:uid="{E231915A-589E-4220-AF79-15FE411F22C5}"/>
-    <hyperlink ref="AP17" r:id="rId101" xr:uid="{6F3F8243-7FEE-4F8E-9429-62C4D73EE173}"/>
-    <hyperlink ref="AO17" r:id="rId102" xr:uid="{5B78C34C-5094-4DF7-9914-42240B5D4C73}"/>
-    <hyperlink ref="AM17" r:id="rId103" xr:uid="{AC185BE7-1080-48D1-BF49-5C93BD6D79A6}"/>
-    <hyperlink ref="AK17" r:id="rId104" xr:uid="{50198A84-070A-4A3D-94DE-98657B0D0914}"/>
-    <hyperlink ref="AG17" r:id="rId105" xr:uid="{EBE32F8A-F2B1-402B-A1C3-3736DFB6798D}"/>
-    <hyperlink ref="AC17" r:id="rId106" xr:uid="{567E86A5-AE59-405B-B5DC-67320364FA1A}"/>
-    <hyperlink ref="Y17" r:id="rId107" xr:uid="{5DBA7542-451F-472A-A178-C59510706C52}"/>
-    <hyperlink ref="P17" r:id="rId108" xr:uid="{3B878BE5-19BB-4DAB-900F-2907314357BD}"/>
-    <hyperlink ref="M17" r:id="rId109" xr:uid="{04760733-4BA7-49C1-9638-547FA3EA32EC}"/>
+    <hyperlink ref="AS17" r:id="rId100" xr:uid="{E231915A-589E-4220-AF79-15FE411F22C5}"/>
+    <hyperlink ref="AR17" r:id="rId101" xr:uid="{6F3F8243-7FEE-4F8E-9429-62C4D73EE173}"/>
+    <hyperlink ref="AQ17" r:id="rId102" xr:uid="{5B78C34C-5094-4DF7-9914-42240B5D4C73}"/>
+    <hyperlink ref="AO17" r:id="rId103" xr:uid="{AC185BE7-1080-48D1-BF49-5C93BD6D79A6}"/>
+    <hyperlink ref="AM17" r:id="rId104" xr:uid="{50198A84-070A-4A3D-94DE-98657B0D0914}"/>
+    <hyperlink ref="AI17" r:id="rId105" xr:uid="{EBE32F8A-F2B1-402B-A1C3-3736DFB6798D}"/>
+    <hyperlink ref="AE17" r:id="rId106" xr:uid="{567E86A5-AE59-405B-B5DC-67320364FA1A}"/>
+    <hyperlink ref="AA17" r:id="rId107" xr:uid="{5DBA7542-451F-472A-A178-C59510706C52}"/>
+    <hyperlink ref="R17" r:id="rId108" xr:uid="{3B878BE5-19BB-4DAB-900F-2907314357BD}"/>
+    <hyperlink ref="O17" r:id="rId109" xr:uid="{04760733-4BA7-49C1-9638-547FA3EA32EC}"/>
     <hyperlink ref="B17" r:id="rId110" xr:uid="{B95273BE-E9BE-4F62-B435-199AF2C772FD}"/>
-    <hyperlink ref="AQ18" r:id="rId111" xr:uid="{9BF1DFAC-F41C-4DE4-8C77-6CD14A45BAB9}"/>
-    <hyperlink ref="AP18" r:id="rId112" xr:uid="{3579B68C-C032-4132-88D5-3DE3AA29D96D}"/>
-    <hyperlink ref="AO18" r:id="rId113" xr:uid="{7EE5E039-15FE-42A2-86F5-0C05E47BF23D}"/>
-    <hyperlink ref="AM18" r:id="rId114" xr:uid="{4E5BB265-8DE8-4534-9518-1647A9637921}"/>
-    <hyperlink ref="AK18" r:id="rId115" xr:uid="{F4EC232E-2FB7-4952-ADD0-784CCE347953}"/>
-    <hyperlink ref="AG18" r:id="rId116" xr:uid="{CCC8B7B0-CD5D-4B5B-87A7-8FF729AA3221}"/>
-    <hyperlink ref="AC18" r:id="rId117" xr:uid="{8B2941A3-C7B6-4056-8BCE-15B4142A1974}"/>
-    <hyperlink ref="Y18" r:id="rId118" xr:uid="{4C19811A-2ABC-4CF3-BDBF-ADD74DB0D839}"/>
-    <hyperlink ref="P18" r:id="rId119" xr:uid="{CBF23D42-7DEE-44AA-AABE-3FCEDA764148}"/>
-    <hyperlink ref="M18" r:id="rId120" xr:uid="{0D0E880B-4B4E-444E-8964-6C249A6D98FC}"/>
+    <hyperlink ref="AS18" r:id="rId111" xr:uid="{9BF1DFAC-F41C-4DE4-8C77-6CD14A45BAB9}"/>
+    <hyperlink ref="AR18" r:id="rId112" xr:uid="{3579B68C-C032-4132-88D5-3DE3AA29D96D}"/>
+    <hyperlink ref="AQ18" r:id="rId113" xr:uid="{7EE5E039-15FE-42A2-86F5-0C05E47BF23D}"/>
+    <hyperlink ref="AO18" r:id="rId114" xr:uid="{4E5BB265-8DE8-4534-9518-1647A9637921}"/>
+    <hyperlink ref="AM18" r:id="rId115" xr:uid="{F4EC232E-2FB7-4952-ADD0-784CCE347953}"/>
+    <hyperlink ref="AI18" r:id="rId116" xr:uid="{CCC8B7B0-CD5D-4B5B-87A7-8FF729AA3221}"/>
+    <hyperlink ref="AE18" r:id="rId117" xr:uid="{8B2941A3-C7B6-4056-8BCE-15B4142A1974}"/>
+    <hyperlink ref="AA18" r:id="rId118" xr:uid="{4C19811A-2ABC-4CF3-BDBF-ADD74DB0D839}"/>
+    <hyperlink ref="R18" r:id="rId119" xr:uid="{CBF23D42-7DEE-44AA-AABE-3FCEDA764148}"/>
+    <hyperlink ref="O18" r:id="rId120" xr:uid="{0D0E880B-4B4E-444E-8964-6C249A6D98FC}"/>
     <hyperlink ref="B18" r:id="rId121" xr:uid="{9526A196-90B0-4416-988D-C567F6C3AC33}"/>
-    <hyperlink ref="AQ19" r:id="rId122" xr:uid="{32064412-C47F-4AF0-B478-3FDE81FDBF46}"/>
-    <hyperlink ref="AP19" r:id="rId123" xr:uid="{CB946E3C-F979-4559-B56B-44EC8E98E798}"/>
-    <hyperlink ref="AO19" r:id="rId124" xr:uid="{3A0F0F47-3685-40D5-B436-5346A94C8D5D}"/>
-    <hyperlink ref="AM19" r:id="rId125" xr:uid="{C723D1D2-B044-4B5B-889D-DB8B65A66102}"/>
-    <hyperlink ref="AK19" r:id="rId126" xr:uid="{F15D9E2B-9A8C-443B-B68B-FDEC16145F8B}"/>
-    <hyperlink ref="AG19" r:id="rId127" xr:uid="{7143B735-9CC6-4003-8628-25E78031526A}"/>
-    <hyperlink ref="AC19" r:id="rId128" xr:uid="{74F20C21-8229-4B41-92EE-8B4B980E7806}"/>
-    <hyperlink ref="Y19" r:id="rId129" xr:uid="{221E3A12-7887-499E-8FF1-1D1BF867A75D}"/>
-    <hyperlink ref="P19" r:id="rId130" xr:uid="{015680CD-D337-4A18-BE26-7EDBAE1DE887}"/>
-    <hyperlink ref="M19" r:id="rId131" xr:uid="{CBB70C93-E64D-4A58-8235-E006E1D287FB}"/>
+    <hyperlink ref="AS19" r:id="rId122" xr:uid="{32064412-C47F-4AF0-B478-3FDE81FDBF46}"/>
+    <hyperlink ref="AR19" r:id="rId123" xr:uid="{CB946E3C-F979-4559-B56B-44EC8E98E798}"/>
+    <hyperlink ref="AQ19" r:id="rId124" xr:uid="{3A0F0F47-3685-40D5-B436-5346A94C8D5D}"/>
+    <hyperlink ref="AO19" r:id="rId125" xr:uid="{C723D1D2-B044-4B5B-889D-DB8B65A66102}"/>
+    <hyperlink ref="AM19" r:id="rId126" xr:uid="{F15D9E2B-9A8C-443B-B68B-FDEC16145F8B}"/>
+    <hyperlink ref="AI19" r:id="rId127" xr:uid="{7143B735-9CC6-4003-8628-25E78031526A}"/>
+    <hyperlink ref="AE19" r:id="rId128" xr:uid="{74F20C21-8229-4B41-92EE-8B4B980E7806}"/>
+    <hyperlink ref="AA19" r:id="rId129" xr:uid="{221E3A12-7887-499E-8FF1-1D1BF867A75D}"/>
+    <hyperlink ref="R19" r:id="rId130" xr:uid="{015680CD-D337-4A18-BE26-7EDBAE1DE887}"/>
+    <hyperlink ref="O19" r:id="rId131" xr:uid="{CBB70C93-E64D-4A58-8235-E006E1D287FB}"/>
     <hyperlink ref="B19" r:id="rId132" xr:uid="{54888EF3-D0D7-46AC-B9F0-1B1629E30D64}"/>
+    <hyperlink ref="AS5" r:id="rId133" xr:uid="{F6EB6DFD-1BFA-427E-B5CD-94EF3EEDB14B}"/>
+    <hyperlink ref="AR5" r:id="rId134" xr:uid="{611F2011-EB3B-4FDF-BBE6-9A8878B92201}"/>
+    <hyperlink ref="AQ5" r:id="rId135" xr:uid="{24480E99-CD38-4FC0-9CFC-A32C0C5845AC}"/>
+    <hyperlink ref="AO5" r:id="rId136" xr:uid="{6EE02DAF-3488-4FBC-93ED-3BCFA6DD611A}"/>
+    <hyperlink ref="AM5" r:id="rId137" xr:uid="{56E40561-8AB6-4FF0-B774-FDC86873E259}"/>
+    <hyperlink ref="AI5" r:id="rId138" xr:uid="{BDA1DE55-0BD2-4CF2-8D5B-48F75065D757}"/>
+    <hyperlink ref="AE5" r:id="rId139" xr:uid="{8CF0F66A-23F2-455C-AFBD-06D015AACEA3}"/>
+    <hyperlink ref="AA5" r:id="rId140" xr:uid="{FF89D8EC-B9D9-4CB1-A3A5-0C9C955E7D58}"/>
+    <hyperlink ref="R5" r:id="rId141" xr:uid="{184B0E7B-1165-4AA8-9F78-E6DB4A57A285}"/>
+    <hyperlink ref="O5" r:id="rId142" xr:uid="{8E01E248-4539-4CDB-A96C-A54644DCF5E0}"/>
+    <hyperlink ref="B5" r:id="rId143" xr:uid="{EACB8DA4-D046-483E-98EB-7A625CDAF37F}"/>
+    <hyperlink ref="AS6" r:id="rId144" xr:uid="{FFDD69F5-B1F7-4CBB-BA55-41C8E19FF1DD}"/>
+    <hyperlink ref="AR6" r:id="rId145" xr:uid="{0A164D0A-F66A-4855-9645-5CF60A43F90B}"/>
+    <hyperlink ref="AQ6" r:id="rId146" xr:uid="{56119E04-AC46-4B45-A094-B837C5D87607}"/>
+    <hyperlink ref="AO6" r:id="rId147" xr:uid="{0C34BAF0-CB19-41A5-A5C5-84401530D9B3}"/>
+    <hyperlink ref="AM6" r:id="rId148" xr:uid="{87FD3DF1-AC3A-4CFC-9BCF-C2E199998788}"/>
+    <hyperlink ref="AI6" r:id="rId149" xr:uid="{B10D7FF8-19BC-4B6A-9A8B-C02D82D267A9}"/>
+    <hyperlink ref="AE6" r:id="rId150" xr:uid="{7E27521F-1889-4431-98DF-154A6631AA73}"/>
+    <hyperlink ref="AA6" r:id="rId151" xr:uid="{1794980B-4927-43AD-90D5-C5777CBD7D53}"/>
+    <hyperlink ref="R6" r:id="rId152" xr:uid="{5185EA4B-1B8E-49E6-A699-16DE8C419B00}"/>
+    <hyperlink ref="O6" r:id="rId153" xr:uid="{C6D59230-6DC8-4A96-BACE-9202B765BD3D}"/>
+    <hyperlink ref="B6" r:id="rId154" xr:uid="{5EC69019-3F6A-4A1C-99C1-CA15809C7A9B}"/>
+    <hyperlink ref="AS7" r:id="rId155" xr:uid="{3EBE476F-7FFC-4572-9DF5-CE1E473A0CCB}"/>
+    <hyperlink ref="AR7" r:id="rId156" xr:uid="{9D45AA5A-8342-4661-A802-600F7FF12631}"/>
+    <hyperlink ref="AQ7" r:id="rId157" xr:uid="{82A42FD5-5DC9-4D86-890B-2696D2B1EDBC}"/>
+    <hyperlink ref="AO7" r:id="rId158" xr:uid="{E75DA19A-6D11-492E-8D55-7E3960D2FB85}"/>
+    <hyperlink ref="AM7" r:id="rId159" xr:uid="{89E21289-23F9-45AD-8E39-19FEB13966AB}"/>
+    <hyperlink ref="AI7" r:id="rId160" xr:uid="{EC705F81-03F2-4836-9B3E-8CD349467879}"/>
+    <hyperlink ref="AE7" r:id="rId161" xr:uid="{B08CBA4C-64BB-4ADB-85D9-F99A53CD8B80}"/>
+    <hyperlink ref="AA7" r:id="rId162" xr:uid="{6D898C9D-21CE-4DC3-87A3-58463D17CA0C}"/>
+    <hyperlink ref="R7" r:id="rId163" xr:uid="{9B337F6D-8922-441C-B042-085D185402FC}"/>
+    <hyperlink ref="O7" r:id="rId164" xr:uid="{2461DEEA-6139-4B47-9355-C0A22DB52E7B}"/>
+    <hyperlink ref="B7" r:id="rId165" xr:uid="{1EF4DCE6-2089-43EE-BD1F-11883D486A44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId133"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId166"/>
 </worksheet>
 </file>